--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{928CD2E5-67FA-4B20-9300-E94337C40F3E}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08824F6-8155-4956-B1BF-54B012AD9463}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -630,15 +630,526 @@
   </si>
   <si>
     <t>Aanteekingen S. 134, Info über die Verortung ist im Absatz über des Text</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Gelijkenis van den verlorenen zoon in den tongval van </t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Eckwarden in Butjadingerland.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 149 bis 150</t>
+  </si>
+  <si>
+    <t>Eckwarden</t>
+  </si>
+  <si>
+    <t>Jeverland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van Jeverland.</t>
+  </si>
+  <si>
+    <t>Aantekingen S.  152 bis 153</t>
+  </si>
+  <si>
+    <t>Rastede</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van  het dorp Rastede.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aantekingen S. 155 </t>
+  </si>
+  <si>
+    <t>De friesche taal in Oldenburg.</t>
+  </si>
+  <si>
+    <t>De nederduitsche taal in Oldenburg.</t>
+  </si>
+  <si>
+    <t>Saterland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van Sagelterland.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 160 bis 168</t>
+  </si>
+  <si>
+    <t>Wangeroog</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Wangeroog.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 173 bis 181</t>
+  </si>
+  <si>
+    <t>Oost-Friesland.</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>53.5900283</t>
+  </si>
+  <si>
+    <t>7.8344317</t>
+  </si>
+  <si>
+    <t>53.2574975</t>
+  </si>
+  <si>
+    <t>8.2056826</t>
+  </si>
+  <si>
+    <t>53.7890408</t>
+  </si>
+  <si>
+    <t>7.9056601</t>
+  </si>
+  <si>
+    <t>53.0447455</t>
+  </si>
+  <si>
+    <t>7.7360014</t>
+  </si>
+  <si>
+    <t>53.1435785</t>
+  </si>
+  <si>
+    <t>8.2166128</t>
+  </si>
+  <si>
+    <t>53.5344147</t>
+  </si>
+  <si>
+    <t>8.2683663</t>
+  </si>
+  <si>
+    <t>Esens</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stadt Esens.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 188 bis 189</t>
+  </si>
+  <si>
+    <t>Nesse</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Nesse.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 191 bis 192</t>
+  </si>
+  <si>
+    <t>Norden</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van  de stad Norden.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 194</t>
+  </si>
+  <si>
+    <t>Norderney</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Nordernei.</t>
+  </si>
+  <si>
+    <t>Borkum</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Borkum.</t>
+  </si>
+  <si>
+    <t>Emden</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Emden.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 207 bis 211</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Leer.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 214 bis 215</t>
+  </si>
+  <si>
+    <t>53.6452205</t>
+  </si>
+  <si>
+    <t>7.6142519</t>
+  </si>
+  <si>
+    <t>53.6530944</t>
+  </si>
+  <si>
+    <t>7.3767901</t>
+  </si>
+  <si>
+    <t>53.5996887</t>
+  </si>
+  <si>
+    <t>7.1970655</t>
+  </si>
+  <si>
+    <t>53.7149340</t>
+  </si>
+  <si>
+    <t>7.2483123</t>
+  </si>
+  <si>
+    <t>53.5986610</t>
+  </si>
+  <si>
+    <t>6.7167254</t>
+  </si>
+  <si>
+    <t>53.3594801</t>
+  </si>
+  <si>
+    <t>7.2030646</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 203, koords von der mitte der Insel</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 197 bis 199, koords von der Mitte der Insel</t>
+  </si>
+  <si>
+    <t>53.2366757</t>
+  </si>
+  <si>
+    <t>7.4647026</t>
+  </si>
+  <si>
+    <t>Westfalen.</t>
+  </si>
+  <si>
+    <t>Wittlage</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Wittlage bij Osnabrück.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 220 bis 221</t>
+  </si>
+  <si>
+    <t>Vreden</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Vreden.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 222 bis 224</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Munster.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 226 bis 227</t>
+  </si>
+  <si>
+    <t>Dat Mäken von Brakel.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 228 bis 229</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Paderborn.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 231 bis 232</t>
+  </si>
+  <si>
+    <t>Sauerland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het Sauerland.</t>
+  </si>
+  <si>
+    <t>Brakel</t>
+  </si>
+  <si>
+    <t>51.7207721</t>
+  </si>
+  <si>
+    <t>8.7519500</t>
+  </si>
+  <si>
+    <t>52.3214967</t>
+  </si>
+  <si>
+    <t>8.3712516</t>
+  </si>
+  <si>
+    <t>52.0359800</t>
+  </si>
+  <si>
+    <t>6.8218941</t>
+  </si>
+  <si>
+    <t>51.9609726</t>
+  </si>
+  <si>
+    <t>7.6137856</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>51.7175797</t>
+  </si>
+  <si>
+    <t>9.1815498</t>
+  </si>
+  <si>
+    <t>51.2780740</t>
+  </si>
+  <si>
+    <t>8.1495401</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 235 bis 238, koords bei Eslohe, etwa Mitte des Sauerlands</t>
+  </si>
+  <si>
+    <t>Neder-Rijnland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Emmerik.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 243 bis 244</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Gelderen.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 245 bis 246</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van't Graafschap Meurs.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 249</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Düsseldorp.</t>
+  </si>
+  <si>
+    <t>Aantekingen S.  251 bis 253</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Keulen.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. S 255 bis 258</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Bonn.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 259 bis 261</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Aken.</t>
+  </si>
+  <si>
+    <t>Aantekingen S. 262 bis 264</t>
+  </si>
+  <si>
+    <t>51.4530007</t>
+  </si>
+  <si>
+    <t>6.6399971</t>
+  </si>
+  <si>
+    <t>51.2310302</t>
+  </si>
+  <si>
+    <t>6.7786325</t>
+  </si>
+  <si>
+    <t>50.7383251</t>
+  </si>
+  <si>
+    <t>7.0977272</t>
+  </si>
+  <si>
+    <t>51.8417279</t>
+  </si>
+  <si>
+    <t>6.2482255</t>
+  </si>
+  <si>
+    <t>Emmerich am Rhein</t>
+  </si>
+  <si>
+    <t>51.5212767</t>
+  </si>
+  <si>
+    <t>6.3256905</t>
+  </si>
+  <si>
+    <t>Geldern</t>
+  </si>
+  <si>
+    <t>50.9407158</t>
+  </si>
+  <si>
+    <t>6.9494574</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>50.7776643</t>
+  </si>
+  <si>
+    <t>6.0848395</t>
+  </si>
+  <si>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>Grafschaft Moers</t>
+  </si>
+  <si>
+    <t>Nederland.</t>
+  </si>
+  <si>
+    <t>Limburg.</t>
+  </si>
+  <si>
+    <t>Niederlande</t>
+  </si>
+  <si>
+    <t>52.1976671</t>
+  </si>
+  <si>
+    <t>5.8544398</t>
+  </si>
+  <si>
+    <t>Maastricht</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Maastricht.</t>
+  </si>
+  <si>
+    <t>Sittard</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Sittard.</t>
+  </si>
+  <si>
+    <t>Roermond</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Roermond.</t>
+  </si>
+  <si>
+    <t>Venlo</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Venlo.</t>
+  </si>
+  <si>
+    <t>Weert</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Weert.</t>
+  </si>
+  <si>
+    <t>Stamproi</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Stamproi.</t>
+  </si>
+  <si>
+    <t>Noord-Brabant.</t>
+  </si>
+  <si>
+    <t>Helmond</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Helmond.</t>
+  </si>
+  <si>
+    <t>Sambeek</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Sambeek (Land van Kuik).</t>
+  </si>
+  <si>
+    <t>Oorschot</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het Vlek Oorschot.</t>
+  </si>
+  <si>
+    <t>Rijsbergen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Rijsbergen.</t>
+  </si>
+  <si>
+    <t>Dussen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Dussen (Land van Altena).</t>
+  </si>
+  <si>
+    <t>Gelderland.</t>
+  </si>
+  <si>
+    <t>Over-Betuwe</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Over-Betuwe.</t>
+  </si>
+  <si>
+    <t>Tielerwaard</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Tielerwaard.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -713,17 +1224,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -740,6 +1258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1578,7 @@
     <col min="9" max="10" width="2.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="7" customWidth="1"/>
     <col min="12" max="13" width="11" style="7"/>
-    <col min="14" max="15" width="11" style="5"/>
+    <col min="14" max="15" width="11" style="14"/>
     <col min="16" max="16" width="3.375" style="7" customWidth="1"/>
     <col min="17" max="20" width="3.5" style="7" customWidth="1"/>
     <col min="21" max="21" width="2.875" style="7" customWidth="1"/>
@@ -1177,10 +1699,10 @@
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -1212,10 +1734,10 @@
       <c r="M3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="15" t="s">
         <v>100</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -1247,10 +1769,10 @@
       <c r="M4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="14" t="s">
         <v>104</v>
       </c>
       <c r="V4" s="7" t="s">
@@ -1288,10 +1810,10 @@
       <c r="M5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="14" t="s">
         <v>107</v>
       </c>
       <c r="V5" s="7" t="s">
@@ -1329,10 +1851,10 @@
       <c r="M6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="14" t="s">
         <v>109</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -1370,10 +1892,10 @@
       <c r="M7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="14" t="s">
         <v>127</v>
       </c>
       <c r="V7" s="7" t="s">
@@ -1411,10 +1933,10 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="14" t="s">
         <v>111</v>
       </c>
       <c r="V8" s="7" t="s">
@@ -1452,10 +1974,10 @@
       <c r="M9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="14" t="s">
         <v>114</v>
       </c>
       <c r="V9" s="7" t="s">
@@ -1493,10 +2015,10 @@
       <c r="M10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="14" t="s">
         <v>129</v>
       </c>
       <c r="V10" s="7" t="s">
@@ -1534,10 +2056,10 @@
       <c r="M11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="14" t="s">
         <v>131</v>
       </c>
       <c r="V11" s="7" t="s">
@@ -1575,10 +2097,10 @@
       <c r="M12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="14" t="s">
         <v>134</v>
       </c>
       <c r="V12" s="7" t="s">
@@ -1616,10 +2138,10 @@
       <c r="M13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="14" t="s">
         <v>137</v>
       </c>
       <c r="V13" s="7" t="s">
@@ -1657,10 +2179,10 @@
       <c r="M14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="14" t="s">
         <v>139</v>
       </c>
       <c r="V14" s="7" t="s">
@@ -1698,10 +2220,10 @@
       <c r="M15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="14" t="s">
         <v>117</v>
       </c>
       <c r="V15" s="7" t="s">
@@ -1739,10 +2261,10 @@
       <c r="M16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="14" t="s">
         <v>119</v>
       </c>
       <c r="V16" s="7" t="s">
@@ -1780,10 +2302,10 @@
       <c r="M17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="14" t="s">
         <v>142</v>
       </c>
       <c r="V17" s="7" t="s">
@@ -1821,10 +2343,10 @@
       <c r="M18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="14" t="s">
         <v>145</v>
       </c>
       <c r="V18" s="7" t="s">
@@ -1862,10 +2384,10 @@
       <c r="M19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="14" t="s">
         <v>147</v>
       </c>
       <c r="V19" s="7" t="s">
@@ -1903,10 +2425,10 @@
       <c r="M20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="14" t="s">
         <v>121</v>
       </c>
       <c r="V20" s="7" t="s">
@@ -1944,10 +2466,10 @@
       <c r="M21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="14" t="s">
         <v>125</v>
       </c>
       <c r="V21" s="7" t="s">
@@ -1985,10 +2507,10 @@
       <c r="M22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="14" t="s">
         <v>123</v>
       </c>
       <c r="V22" s="7" t="s">
@@ -2026,10 +2548,10 @@
       <c r="M23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V23" s="7" t="s">
@@ -2067,10 +2589,10 @@
       <c r="M24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="14" t="s">
         <v>177</v>
       </c>
       <c r="V24" s="7" t="s">
@@ -2108,10 +2630,10 @@
       <c r="M25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="14" t="s">
         <v>177</v>
       </c>
       <c r="V25" s="7" t="s">
@@ -2146,10 +2668,10 @@
       <c r="M26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="14" t="s">
         <v>177</v>
       </c>
       <c r="V26" s="7" t="s">
@@ -2184,10 +2706,10 @@
       <c r="M27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="14" t="s">
         <v>179</v>
       </c>
       <c r="V27" s="7" t="s">
@@ -2225,10 +2747,10 @@
       <c r="M28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="14" t="s">
         <v>181</v>
       </c>
       <c r="V28" s="7" t="s">
@@ -2266,10 +2788,10 @@
       <c r="M29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="14" t="s">
         <v>183</v>
       </c>
       <c r="V29" s="7" t="s">
@@ -2307,10 +2829,10 @@
       <c r="M30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="14" t="s">
         <v>195</v>
       </c>
       <c r="V30" s="7" t="s">
@@ -2348,10 +2870,10 @@
       <c r="M31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="14" t="s">
         <v>189</v>
       </c>
       <c r="V31" s="7" t="s">
@@ -2389,10 +2911,10 @@
       <c r="M32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="15" t="s">
         <v>192</v>
       </c>
       <c r="V32" s="7" t="s">
@@ -2430,10 +2952,10 @@
       <c r="M33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="14" t="s">
         <v>185</v>
       </c>
       <c r="V33" s="7" t="s">
@@ -2449,8 +2971,1970 @@
         <v>173</v>
       </c>
     </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="7">
+        <v>145</v>
+      </c>
+      <c r="E34" s="7">
+        <v>155</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="7">
+        <v>147</v>
+      </c>
+      <c r="E35" s="7">
+        <v>149</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB35" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="7">
+        <v>150</v>
+      </c>
+      <c r="E36" s="7">
+        <v>152</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB36" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="7">
+        <v>153</v>
+      </c>
+      <c r="E37" s="7">
+        <v>155</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB37" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="7">
+        <v>155</v>
+      </c>
+      <c r="E38" s="7">
+        <v>181</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="7">
+        <v>158</v>
+      </c>
+      <c r="E39" s="7">
+        <v>160</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB39" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="7">
+        <v>171</v>
+      </c>
+      <c r="E40" s="7">
+        <v>173</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB40" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="7">
+        <v>187</v>
+      </c>
+      <c r="E41" s="7">
+        <v>188</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB41" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="7">
+        <v>190</v>
+      </c>
+      <c r="E42" s="7">
+        <v>191</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB42" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="7">
+        <v>192</v>
+      </c>
+      <c r="E43" s="7">
+        <v>194</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB43" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="7">
+        <v>195</v>
+      </c>
+      <c r="E44" s="7">
+        <v>197</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB44" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="7">
+        <v>201</v>
+      </c>
+      <c r="E45" s="7">
+        <v>202</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB45" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="7">
+        <v>205</v>
+      </c>
+      <c r="E46" s="7">
+        <v>207</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB46" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="7">
+        <v>212</v>
+      </c>
+      <c r="E47" s="7">
+        <v>213</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB47" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="7">
+        <v>218</v>
+      </c>
+      <c r="E48" s="7">
+        <v>220</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="7">
+        <v>221</v>
+      </c>
+      <c r="E49" s="7">
+        <v>222</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB49" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="7">
+        <v>224</v>
+      </c>
+      <c r="E50" s="7">
+        <v>226</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB50" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="7">
+        <v>228</v>
+      </c>
+      <c r="E51" s="7">
+        <v>228</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB51" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="7">
+        <v>229</v>
+      </c>
+      <c r="E52" s="7">
+        <v>231</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB52" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="7">
+        <v>233</v>
+      </c>
+      <c r="E53" s="7">
+        <v>234</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB53" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="7">
+        <v>241</v>
+      </c>
+      <c r="E54" s="7">
+        <v>243</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB54" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="7">
+        <v>244</v>
+      </c>
+      <c r="E55" s="7">
+        <v>245</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB55" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="7">
+        <v>247</v>
+      </c>
+      <c r="E56" s="7">
+        <v>248</v>
+      </c>
+      <c r="K56" t="s">
+        <v>332</v>
+      </c>
+      <c r="L56" t="s">
+        <v>157</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB56" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="7">
+        <v>250</v>
+      </c>
+      <c r="E57" s="7">
+        <v>251</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB57" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="7">
+        <v>254</v>
+      </c>
+      <c r="E58" s="7">
+        <v>255</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="V58" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB58" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="7">
+        <v>258</v>
+      </c>
+      <c r="E59" s="7">
+        <v>259</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB59" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="7">
+        <v>261</v>
+      </c>
+      <c r="E60" s="7">
+        <v>262</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="W60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB60" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D61" s="7">
+        <v>265</v>
+      </c>
+      <c r="E61" s="7">
+        <v>268</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB61" s="10"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="7">
+        <v>272</v>
+      </c>
+      <c r="E62" s="7">
+        <v>274</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="W62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB62" s="10"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" s="7">
+        <v>277</v>
+      </c>
+      <c r="E63" s="7">
+        <v>278</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB63" s="10"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="7">
+        <v>280</v>
+      </c>
+      <c r="E64" s="7">
+        <v>282</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="W64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="7">
+        <v>283</v>
+      </c>
+      <c r="E65" s="7">
+        <v>285</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="W65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA65" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" s="7">
+        <v>286</v>
+      </c>
+      <c r="E66" s="7">
+        <v>288</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA66" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" s="7">
+        <v>290</v>
+      </c>
+      <c r="E67" s="7">
+        <v>291</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA67" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" s="7">
+        <v>295</v>
+      </c>
+      <c r="E68" s="7">
+        <v>297</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V68" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA68" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D69" s="7">
+        <v>299</v>
+      </c>
+      <c r="E69" s="7">
+        <v>300</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V69" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA69" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" s="7">
+        <v>303</v>
+      </c>
+      <c r="E70" s="7">
+        <v>304</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="W70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA70" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="7">
+        <v>306</v>
+      </c>
+      <c r="E71" s="7">
+        <v>307</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V71" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="W71" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA71" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="7">
+        <v>309</v>
+      </c>
+      <c r="E72" s="7">
+        <v>312</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V72" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA72" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="7">
+        <v>318</v>
+      </c>
+      <c r="E73" s="7">
+        <v>320</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V73" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="W73" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA73" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="7">
+        <v>322</v>
+      </c>
+      <c r="E74" s="7">
+        <v>323</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V74" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA74" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="7">
+        <v>326</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W75" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA75" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA76" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA77" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA78" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA79" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V80" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W80" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA80" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V81" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA81" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V82" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA82" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V83" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA83" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W84" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA84" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V85" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA85" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V86" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W86" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA86" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W87" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA87" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V88" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA88" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V89" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W89" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA89" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V90" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA90" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V91" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA91" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V92" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W92" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA92" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V93" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA93" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W94" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA94" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V95" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA95" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V96" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W96" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA96" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V97" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA97" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W98" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA98" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V99" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W99" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA99" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V100" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W100" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA100" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08824F6-8155-4956-B1BF-54B012AD9463}"/>
+  <xr:revisionPtr revIDLastSave="1452" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA442911-BF81-400D-BA01-9ADE76A18A2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -155,12 +155,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad koningsbergen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Dantzig.</t>
-  </si>
-  <si>
     <t>Danzig</t>
   </si>
   <si>
@@ -185,18 +179,12 @@
     <t>Greifswald</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Greifswald.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 22 bis 24</t>
   </si>
   <si>
     <t>Kleinregional</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Putbus op het eiland Rügen.</t>
-  </si>
-  <si>
     <t>Putbus</t>
   </si>
   <si>
@@ -221,54 +209,30 @@
     <t>Meitzendorf</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Neumark.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Altmark.</t>
-  </si>
-  <si>
     <t>Aanteereningen S. 38 bis 40</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Hohen-Dodeleben.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 42 bis 45</t>
   </si>
   <si>
     <t>Mecklenburg.</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Nieuw-Brandenburg.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 48 bis 50</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stadt Stavenhagen.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 51 bis 53</t>
   </si>
   <si>
     <t>Holstein.</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de dorp Meitzendorf.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Frederikstad a/d Eider.</t>
-  </si>
-  <si>
     <t>Aanteekingen S. 57 bis 58</t>
   </si>
   <si>
     <t>Dithmarschen</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Dithmarschen.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 60 bis 61</t>
   </si>
   <si>
@@ -278,15 +242,9 @@
     <t>Angeln</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Angelen.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 66 bis 69</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Bökingharde of den Moringer tongval.</t>
-  </si>
-  <si>
     <t>Stedesand</t>
   </si>
   <si>
@@ -296,12 +254,6 @@
     <t>Hattstedt</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het Dorp Hattstedt od den Gosharder tongval.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval  van Stedesand of van de Karrharde.</t>
-  </si>
-  <si>
     <t>Bökingharde</t>
   </si>
   <si>
@@ -311,27 +263,18 @@
     <t>Amrum</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Amrum.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 91 bis 92</t>
   </si>
   <si>
     <t>Sylt</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Sylt.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 95 bis 97</t>
   </si>
   <si>
     <t>Helgoland</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Helgoland.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 101 bis 102</t>
   </si>
   <si>
@@ -458,9 +401,6 @@
     <t>9.0856412</t>
   </si>
   <si>
-    <t>Friedrichstadt a/d Eider</t>
-  </si>
-  <si>
     <t>54.7683242</t>
   </si>
   <si>
@@ -488,36 +428,21 @@
     <t>Schlutup</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Schlutup.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 106 bis 107</t>
   </si>
   <si>
     <t>Hamburg</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Hamburg.</t>
-  </si>
-  <si>
     <t>Aantekeningen S. 110 bis 112</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Hamburg, uit de zeventiende Eeuw.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Hamburg, uit de zestiende Eeuw.</t>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
     <t>Bremen</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Bremen.</t>
-  </si>
-  <si>
     <t>Aanteekeningen S. 118 bis 121</t>
   </si>
   <si>
@@ -527,9 +452,6 @@
     <t>Deister</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Deister.</t>
-  </si>
-  <si>
     <t>Aanteekingen S. 126 bis 129</t>
   </si>
   <si>
@@ -542,21 +464,12 @@
     <t>Oldendorf-Himmelpforten</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Oldendorf-Himmelpforten.</t>
-  </si>
-  <si>
     <t>Altendorf</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Altendorf.</t>
-  </si>
-  <si>
     <t>Rechtenfleth</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Rechtenfleth.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 145</t>
   </si>
   <si>
@@ -635,12 +548,6 @@
     <t>H3</t>
   </si>
   <si>
-    <t xml:space="preserve">De Gelijkenis van den verlorenen zoon in den tongval van </t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Eckwarden in Butjadingerland.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 149 bis 150</t>
   </si>
   <si>
@@ -650,42 +557,24 @@
     <t>Jeverland</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Jeverland.</t>
-  </si>
-  <si>
     <t>Aantekingen S.  152 bis 153</t>
   </si>
   <si>
     <t>Rastede</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van  het dorp Rastede.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aantekingen S. 155 </t>
   </si>
   <si>
-    <t>De friesche taal in Oldenburg.</t>
-  </si>
-  <si>
-    <t>De nederduitsche taal in Oldenburg.</t>
-  </si>
-  <si>
     <t>Saterland</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van Sagelterland.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 160 bis 168</t>
   </si>
   <si>
     <t>Wangeroog</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Wangeroog.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 173 bis 181</t>
   </si>
   <si>
@@ -734,54 +623,33 @@
     <t>Esens</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stadt Esens.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 188 bis 189</t>
   </si>
   <si>
     <t>Nesse</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Nesse.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 191 bis 192</t>
   </si>
   <si>
     <t>Norden</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van  de stad Norden.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 194</t>
   </si>
   <si>
     <t>Norderney</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Nordernei.</t>
-  </si>
-  <si>
     <t>Borkum</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het eiland Borkum.</t>
-  </si>
-  <si>
     <t>Emden</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Emden.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 207 bis 211</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Leer.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 214 bis 215</t>
   </si>
   <si>
@@ -842,24 +710,15 @@
     <t>Leer</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Wittlage bij Osnabrück.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 220 bis 221</t>
   </si>
   <si>
     <t>Vreden</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Vreden.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 222 bis 224</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Munster.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 226 bis 227</t>
   </si>
   <si>
@@ -872,18 +731,12 @@
     <t>Paderborn</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Paderborn.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 231 bis 232</t>
   </si>
   <si>
     <t>Sauerland</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het Sauerland.</t>
-  </si>
-  <si>
     <t>Brakel</t>
   </si>
   <si>
@@ -932,15 +785,9 @@
     <t>Neder-Rijnland.</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Emmerik.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 243 bis 244</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Gelderen.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 245 bis 246</t>
   </si>
   <si>
@@ -953,30 +800,18 @@
     <t>Düsseldorf</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Düsseldorp.</t>
-  </si>
-  <si>
     <t>Aantekingen S.  251 bis 253</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Keulen.</t>
-  </si>
-  <si>
     <t>Aantekingen S. S 255 bis 258</t>
   </si>
   <si>
     <t>Bonn</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Bonn.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 259 bis 261</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Aken.</t>
-  </si>
-  <si>
     <t>Aantekingen S. 262 bis 264</t>
   </si>
   <si>
@@ -1055,94 +890,794 @@
     <t>Maastricht</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Maastricht.</t>
-  </si>
-  <si>
     <t>Sittard</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Sittard.</t>
-  </si>
-  <si>
     <t>Roermond</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Roermond.</t>
-  </si>
-  <si>
     <t>Venlo</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Venlo.</t>
-  </si>
-  <si>
     <t>Weert</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Weert.</t>
-  </si>
-  <si>
-    <t>Stamproi</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Stamproi.</t>
-  </si>
-  <si>
     <t>Noord-Brabant.</t>
   </si>
   <si>
     <t>Helmond</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de stad Helmond.</t>
-  </si>
-  <si>
     <t>Sambeek</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Sambeek (Land van Kuik).</t>
-  </si>
-  <si>
-    <t>Oorschot</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het Vlek Oorschot.</t>
-  </si>
-  <si>
     <t>Rijsbergen</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Rijsbergen.</t>
-  </si>
-  <si>
     <t>Dussen</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van het dorp Dussen (Land van Altena).</t>
-  </si>
-  <si>
     <t>Gelderland.</t>
   </si>
   <si>
-    <t>Over-Betuwe</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Over-Betuwe.</t>
-  </si>
-  <si>
     <t>Tielerwaard</t>
   </si>
   <si>
-    <t>De Gelijkenis van den verlorenen zoon in den tongval van de Tielerwaard.</t>
+    <t>50.8521434</t>
+  </si>
+  <si>
+    <t>5.6924502</t>
+  </si>
+  <si>
+    <t>51.0003736</t>
+  </si>
+  <si>
+    <t>5.8871390</t>
+  </si>
+  <si>
+    <t>51.1913683</t>
+  </si>
+  <si>
+    <t>5.9872192</t>
+  </si>
+  <si>
+    <t>51.2458031</t>
+  </si>
+  <si>
+    <t>5.7125398</t>
+  </si>
+  <si>
+    <t>51.3717711</t>
+  </si>
+  <si>
+    <t>6.1720327</t>
+  </si>
+  <si>
+    <t>51.4806499</t>
+  </si>
+  <si>
+    <t>5.6542279</t>
+  </si>
+  <si>
+    <t>51.6359671</t>
+  </si>
+  <si>
+    <t>5.9651767</t>
+  </si>
+  <si>
+    <t>51.5049691</t>
+  </si>
+  <si>
+    <t>5.3086504</t>
+  </si>
+  <si>
+    <t>Oirschot</t>
+  </si>
+  <si>
+    <t>51.5165189</t>
+  </si>
+  <si>
+    <t>4.6986054</t>
+  </si>
+  <si>
+    <t>51.7303594</t>
+  </si>
+  <si>
+    <t>4.9632423</t>
+  </si>
+  <si>
+    <t>51.9292352</t>
+  </si>
+  <si>
+    <t>5.7771661</t>
+  </si>
+  <si>
+    <t>koords der Mitte der Gemeinde Over-Betuwe</t>
+  </si>
+  <si>
+    <t>Overbetuwe</t>
+  </si>
+  <si>
+    <t>51.8443876</t>
+  </si>
+  <si>
+    <t>5.1884785</t>
+  </si>
+  <si>
+    <t>Uddel</t>
+  </si>
+  <si>
+    <t>Scherpenzeel</t>
+  </si>
+  <si>
+    <t>Dinxperlo</t>
+  </si>
+  <si>
+    <t>Winterswijk</t>
+  </si>
+  <si>
+    <t>Utrecht.</t>
+  </si>
+  <si>
+    <t>Soest</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Overijssel.</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Vriezenveen</t>
+  </si>
+  <si>
+    <t>Hinweis auf Ort im erklärungstext davor</t>
+  </si>
+  <si>
+    <t>Deventer</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Zwartsluis</t>
+  </si>
+  <si>
+    <t>Drenthe.</t>
+  </si>
+  <si>
+    <t>Meppel</t>
+  </si>
+  <si>
+    <t>Groningen.</t>
+  </si>
+  <si>
+    <t>Oldambt</t>
+  </si>
+  <si>
+    <t>Ulrum</t>
+  </si>
+  <si>
+    <t>Sellingen</t>
+  </si>
+  <si>
+    <t>Woltersum</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Den Ham</t>
+  </si>
+  <si>
+    <t>Grijpskerk</t>
+  </si>
+  <si>
+    <t>Friesland.</t>
+  </si>
+  <si>
+    <t>Provinz Friesland</t>
+  </si>
+  <si>
+    <t>Workum</t>
+  </si>
+  <si>
+    <t>Hindeloopen</t>
+  </si>
+  <si>
+    <t>Molkwerum</t>
+  </si>
+  <si>
+    <t>Schiermonnikoog</t>
+  </si>
+  <si>
+    <t>Leeuwarden</t>
+  </si>
+  <si>
+    <t>Dokkum</t>
+  </si>
+  <si>
+    <t>Bolsward</t>
+  </si>
+  <si>
+    <t>Het Bildt</t>
+  </si>
+  <si>
+    <t>Noordwolde</t>
+  </si>
+  <si>
+    <t>De nederduitsche Taal in Friesland.</t>
+  </si>
+  <si>
+    <t>Het Evangelie van Mattheus, Hoofdruk VI Vers 19-30, in den Tongval van het Dorp Molkwerum, zoo als die daar nog in de achttiende Eeuw gesproken werd.</t>
+  </si>
+  <si>
+    <t>52.4088459</t>
+  </si>
+  <si>
+    <t>6.6139066</t>
+  </si>
+  <si>
+    <t>52.2653091</t>
+  </si>
+  <si>
+    <t>6.1558637</t>
+  </si>
+  <si>
+    <t>52.5159116</t>
+  </si>
+  <si>
+    <t>6.0843391</t>
+  </si>
+  <si>
+    <t>53.2001983</t>
+  </si>
+  <si>
+    <t>5.8000561</t>
+  </si>
+  <si>
+    <t>53.0616333</t>
+  </si>
+  <si>
+    <t>5.5207948</t>
+  </si>
+  <si>
+    <t>52.7597249</t>
+  </si>
+  <si>
+    <t>4.6982899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so interpretiert das der holländische teil frieslands gemeint ist, </t>
+  </si>
+  <si>
+    <t>52.2578603</t>
+  </si>
+  <si>
+    <t>5.7821359</t>
+  </si>
+  <si>
+    <t>52.2229097</t>
+  </si>
+  <si>
+    <t>5.4840412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nijkerk </t>
+  </si>
+  <si>
+    <t>52.0795666</t>
+  </si>
+  <si>
+    <t>5.4879999</t>
+  </si>
+  <si>
+    <t>51.8661636</t>
+  </si>
+  <si>
+    <t>6.4928947</t>
+  </si>
+  <si>
+    <t>52.1419832</t>
+  </si>
+  <si>
+    <t>6.1934860</t>
+  </si>
+  <si>
+    <t>Zutphen</t>
+  </si>
+  <si>
+    <t>52.1768172</t>
+  </si>
+  <si>
+    <t>5.2971636</t>
+  </si>
+  <si>
+    <t>52.0918639</t>
+  </si>
+  <si>
+    <t>5.1205957</t>
+  </si>
+  <si>
+    <t>52.3127178</t>
+  </si>
+  <si>
+    <t>6.9257257</t>
+  </si>
+  <si>
+    <t>52.6419640</t>
+  </si>
+  <si>
+    <t>6.0705852</t>
+  </si>
+  <si>
+    <t>52.6945494</t>
+  </si>
+  <si>
+    <t>6.1899308</t>
+  </si>
+  <si>
+    <t>52.7947530</t>
+  </si>
+  <si>
+    <t>6.7292119</t>
+  </si>
+  <si>
+    <t>Zweeloo</t>
+  </si>
+  <si>
+    <t>52.9469512</t>
+  </si>
+  <si>
+    <t>7.1503116</t>
+  </si>
+  <si>
+    <t>53.2709574</t>
+  </si>
+  <si>
+    <t>6.7307843</t>
+  </si>
+  <si>
+    <t>53.3600290</t>
+  </si>
+  <si>
+    <t>6.3325158</t>
+  </si>
+  <si>
+    <t>53.2198117</t>
+  </si>
+  <si>
+    <t>6.5648768</t>
+  </si>
+  <si>
+    <t>52.4645990</t>
+  </si>
+  <si>
+    <t>6.4935972</t>
+  </si>
+  <si>
+    <t>53.2638177</t>
+  </si>
+  <si>
+    <t>6.3061114</t>
+  </si>
+  <si>
+    <t>52.9813870</t>
+  </si>
+  <si>
+    <t>5.4485347</t>
+  </si>
+  <si>
+    <t>niederländisch Warkum</t>
+  </si>
+  <si>
+    <t>52.9416436</t>
+  </si>
+  <si>
+    <t>5.4014680</t>
+  </si>
+  <si>
+    <t>52.9005437</t>
+  </si>
+  <si>
+    <t>5.3988821</t>
+  </si>
+  <si>
+    <t>53.4920701</t>
+  </si>
+  <si>
+    <t>6.2257612</t>
+  </si>
+  <si>
+    <t>53.3238485</t>
+  </si>
+  <si>
+    <t>6.0011394</t>
+  </si>
+  <si>
+    <t>53.4465672</t>
+  </si>
+  <si>
+    <t>5.7699099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nes </t>
+  </si>
+  <si>
+    <t>52.8912078</t>
+  </si>
+  <si>
+    <t>6.1407909</t>
+  </si>
+  <si>
+    <t>Stamproy</t>
+  </si>
+  <si>
+    <t>51.1944180</t>
+  </si>
+  <si>
+    <t>5.7219477</t>
+  </si>
+  <si>
+    <t>Varsseveld</t>
+  </si>
+  <si>
+    <t>51.9434204</t>
+  </si>
+  <si>
+    <t>6.4614904</t>
+  </si>
+  <si>
+    <t>51.9710413</t>
+  </si>
+  <si>
+    <t>6.7193354</t>
+  </si>
+  <si>
+    <t>53.2098258</t>
+  </si>
+  <si>
+    <t>7.0705139</t>
+  </si>
+  <si>
+    <t>koords etwa mItte der gemeinde Oldambt</t>
+  </si>
+  <si>
+    <t>53.2294235</t>
+  </si>
+  <si>
+    <t>5.5518548</t>
+  </si>
+  <si>
+    <t>die gemeinde Het Bilkdt gibt es seit 2018 nicht mehr, wurde aufgelöst und mit anderen Gemeinden und Orten zu Gemeinde Waadhoeke vereinigt. Koord zwischen Franeker uns Tzummarum, etwa die ehemalige Gemeinde</t>
+  </si>
+  <si>
+    <t>Friesland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Neumark.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Altmark.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Dithmarschen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Angelen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Deister.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Jeverland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Sagelterland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Sauerland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Over-Betuwe.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Tielerwaard.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Oldambt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Ulrum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Schiermonnikoog.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Leeuwarden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Dokkum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bolsward.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Nes op't Ameland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Gemeente (Grietenij) Het Bildt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Noordwolde.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Dorp Meitzendorf.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Hohen-Dodeleben.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Schlutup.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Oldendorf-Himmelpforten.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Altendorf.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Rechtenfleth.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Eckwarden in Butjadingerland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van  het Dorp Rastede.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Nesse.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Wittlage bij Osnabrück.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Stamproi.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Sambeek (Land van Kuik).</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Rijsbergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Dussen (Land van Altena).</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Uddel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Scherpenzeel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Dinxperlo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Varsefeld.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Soest.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Zweelo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Sellingen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Wolstersum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Den Ham.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Grijpskerk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Dantzig.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Greifswald.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Nieuw-Brandenburg.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stadt Stavenhagen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad FrederikStad a/d Eider.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zestiende Eeuw.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zeventiende Eeuw.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bremen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stadt Esens.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van  de Stad Norden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Emden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Leer.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Vreden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Munster.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Paderborn.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Emmerik.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Gelderen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Keulen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bonn.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Aken.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Maastricht.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Sittard.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Roermond.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Venlo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Weert.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Helmond.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Nijkerk op de Veluwe.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Zutfen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Utrecht.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Oldenzaal.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Deventer.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Zwolle.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Stadje Zwartsluis.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Meppel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Groningen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Stad Workum, zoo als die nog omstreeks het jaar 1800 daar algemeen gesproken werd.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hindeloopen.</t>
+  </si>
+  <si>
+    <t>FriedrichStadt a/d Eider</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Koningsbergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Putbus op het Eiland Rügen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Amrum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Sylt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Helgoland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Wangeroog.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Nordernei.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Borkum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Bökingharde of den Moringer Tongval.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Stedesand of van de Karrharde.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Hattstedt od den Gosharder Tongval.</t>
+  </si>
+  <si>
+    <t>De nederduitsche Taal in Oldenburg.</t>
+  </si>
+  <si>
+    <t>De friesche Taal in Oldenburg.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Düsseldorp.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Vlek Oorschot.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Vlek Winterswijk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in de platzte Spraak van de laagste Klasse des Volks te Utrecht.</t>
+  </si>
+  <si>
+    <t>Brief van een Ingezetene van Friezenveen aan zijn Zoon die Soldaat is voor den Koning, eerst op de Citadel bij Antwerpen en nu te Nijmegen.</t>
+  </si>
+  <si>
+    <t>De friesche Taal in Friesland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van de verlorenen Zoon in de friesche Taal, den hendendaagschen Dialectus Communis van de Provincie Friesland.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1224,24 +1759,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,11 +2098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V103" sqref="V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +2113,7 @@
     <col min="6" max="7" width="3" style="7" customWidth="1"/>
     <col min="8" max="8" width="2.625" style="7" customWidth="1"/>
     <col min="9" max="10" width="2.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.875" style="7" customWidth="1"/>
     <col min="12" max="13" width="11" style="7"/>
     <col min="14" max="15" width="11" style="14"/>
     <col min="16" max="16" width="3.375" style="7" customWidth="1"/>
@@ -1682,7 +2219,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -1699,17 +2236,17 @@
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1717,7 +2254,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7">
         <v>3</v>
@@ -1734,17 +2271,17 @@
       <c r="M3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>100</v>
+      <c r="N3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1752,7 +2289,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>8</v>
@@ -1770,13 +2307,13 @@
         <v>37</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>38</v>
@@ -1785,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1793,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
         <v>14</v>
@@ -1802,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>31</v>
@@ -1811,22 +2348,22 @@
         <v>37</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="V5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1834,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
         <v>21</v>
@@ -1843,7 +2380,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -1852,13 +2389,13 @@
         <v>37</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>49</v>
+        <v>484</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>38</v>
@@ -1867,7 +2404,7 @@
         <v>29</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1875,7 +2412,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
         <v>25</v>
@@ -1884,7 +2421,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>31</v>
@@ -1893,13 +2430,13 @@
         <v>37</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>38</v>
@@ -1908,7 +2445,7 @@
         <v>29</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1916,7 +2453,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
         <v>29</v>
@@ -1925,7 +2462,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -1934,13 +2471,13 @@
         <v>32</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>61</v>
+        <v>440</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>38</v>
@@ -1949,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1957,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
         <v>34</v>
@@ -1966,7 +2503,7 @@
         <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>31</v>
@@ -1975,13 +2512,13 @@
         <v>32</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>38</v>
@@ -1990,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1998,40 +2535,40 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="7">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2039,7 +2576,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
         <v>41</v>
@@ -2048,7 +2585,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>31</v>
@@ -2057,13 +2594,13 @@
         <v>37</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>38</v>
@@ -2072,7 +2609,7 @@
         <v>29</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2080,7 +2617,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
         <v>47</v>
@@ -2089,7 +2626,7 @@
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -2098,13 +2635,13 @@
         <v>37</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>67</v>
+        <v>485</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>38</v>
@@ -2113,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2121,7 +2658,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
         <v>50</v>
@@ -2130,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>31</v>
@@ -2139,13 +2676,13 @@
         <v>37</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>69</v>
+        <v>486</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>38</v>
@@ -2154,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2162,7 +2699,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7">
         <v>56</v>
@@ -2171,7 +2708,7 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -2180,13 +2717,13 @@
         <v>37</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>73</v>
+        <v>487</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>38</v>
@@ -2195,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -2203,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7">
         <v>59</v>
@@ -2212,22 +2749,22 @@
         <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>38</v>
@@ -2236,7 +2773,7 @@
         <v>29</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2244,7 +2781,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
         <v>65</v>
@@ -2253,7 +2790,7 @@
         <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2262,13 +2799,13 @@
         <v>32</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>38</v>
@@ -2277,7 +2814,7 @@
         <v>29</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
@@ -2285,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
         <v>78</v>
@@ -2294,22 +2831,22 @@
         <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>38</v>
@@ -2318,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
@@ -2326,7 +2863,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
         <v>81</v>
@@ -2335,7 +2872,7 @@
         <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
@@ -2344,13 +2881,13 @@
         <v>37</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>87</v>
+        <v>125</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>38</v>
@@ -2359,7 +2896,7 @@
         <v>29</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
@@ -2367,7 +2904,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
         <v>84</v>
@@ -2376,7 +2913,7 @@
         <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>31</v>
@@ -2385,13 +2922,13 @@
         <v>37</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>38</v>
@@ -2400,7 +2937,7 @@
         <v>29</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
@@ -2408,7 +2945,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7">
         <v>89</v>
@@ -2417,22 +2954,22 @@
         <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>91</v>
+        <v>524</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>38</v>
@@ -2441,7 +2978,7 @@
         <v>29</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
@@ -2449,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
         <v>94</v>
@@ -2458,22 +2995,22 @@
         <v>95</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>94</v>
+        <v>525</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>38</v>
@@ -2482,7 +3019,7 @@
         <v>29</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
@@ -2490,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
         <v>99</v>
@@ -2499,22 +3036,22 @@
         <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>97</v>
+        <v>526</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>38</v>
@@ -2523,7 +3060,7 @@
         <v>29</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
@@ -2531,7 +3068,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7">
         <v>104</v>
@@ -2540,7 +3077,7 @@
         <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>31</v>
@@ -2549,13 +3086,13 @@
         <v>37</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>150</v>
+        <v>461</v>
       </c>
       <c r="W23" s="7" t="s">
         <v>38</v>
@@ -2564,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
@@ -2572,7 +3109,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D24" s="7">
         <v>109</v>
@@ -2581,7 +3118,7 @@
         <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -2590,13 +3127,13 @@
         <v>37</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="W24" s="7" t="s">
         <v>38</v>
@@ -2605,7 +3142,7 @@
         <v>29</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
@@ -2613,7 +3150,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D25" s="7">
         <v>112</v>
@@ -2622,22 +3159,22 @@
         <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>38</v>
@@ -2651,7 +3188,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D26" s="7">
         <v>114</v>
@@ -2660,22 +3197,22 @@
         <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>155</v>
+        <v>490</v>
       </c>
       <c r="W26" s="7" t="s">
         <v>38</v>
@@ -2689,7 +3226,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D27" s="7">
         <v>117</v>
@@ -2698,7 +3235,7 @@
         <v>118</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>31</v>
@@ -2707,13 +3244,13 @@
         <v>37</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>159</v>
+        <v>491</v>
       </c>
       <c r="W27" s="7" t="s">
         <v>38</v>
@@ -2722,7 +3259,7 @@
         <v>29</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
@@ -2730,7 +3267,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D28" s="7">
         <v>124</v>
@@ -2739,22 +3276,22 @@
         <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="W28" s="7" t="s">
         <v>38</v>
@@ -2763,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
@@ -2771,7 +3308,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D29" s="7">
         <v>130</v>
@@ -2780,7 +3317,7 @@
         <v>131</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>31</v>
@@ -2789,13 +3326,13 @@
         <v>37</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="W29" s="7" t="s">
         <v>38</v>
@@ -2804,7 +3341,7 @@
         <v>29</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
@@ -2812,7 +3349,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D30" s="7">
         <v>133</v>
@@ -2821,7 +3358,7 @@
         <v>134</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
@@ -2830,13 +3367,13 @@
         <v>32</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="W30" s="7" t="s">
         <v>38</v>
@@ -2845,7 +3382,7 @@
         <v>29</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
@@ -2853,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D31" s="7">
         <v>137</v>
@@ -2862,22 +3399,22 @@
         <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>38</v>
@@ -2886,7 +3423,7 @@
         <v>29</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
@@ -2894,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D32" s="7">
         <v>140</v>
@@ -2903,7 +3440,7 @@
         <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>31</v>
@@ -2911,14 +3448,14 @@
       <c r="M32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>192</v>
+      <c r="N32" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>170</v>
+        <v>463</v>
       </c>
       <c r="W32" s="7" t="s">
         <v>38</v>
@@ -2927,7 +3464,7 @@
         <v>29</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
@@ -2935,7 +3472,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D33" s="7">
         <v>143</v>
@@ -2944,7 +3481,7 @@
         <v>145</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>31</v>
@@ -2953,13 +3490,13 @@
         <v>37</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>172</v>
+        <v>464</v>
       </c>
       <c r="W33" s="7" t="s">
         <v>38</v>
@@ -2968,7 +3505,7 @@
         <v>29</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
@@ -2976,7 +3513,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D34" s="7">
         <v>145</v>
@@ -2985,22 +3522,22 @@
         <v>155</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="W34" s="10" t="s">
         <v>38</v>
@@ -3014,7 +3551,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D35" s="7">
         <v>147</v>
@@ -3023,7 +3560,7 @@
         <v>149</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>31</v>
@@ -3032,22 +3569,22 @@
         <v>37</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>200</v>
+        <v>465</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AA35" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3055,7 +3592,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D36" s="7">
         <v>150</v>
@@ -3064,7 +3601,7 @@
         <v>152</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>31</v>
@@ -3073,22 +3610,22 @@
         <v>32</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>204</v>
+        <v>445</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AA36" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3096,7 +3633,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D37" s="7">
         <v>153</v>
@@ -3105,7 +3642,7 @@
         <v>155</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>31</v>
@@ -3114,22 +3651,22 @@
         <v>37</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>207</v>
+        <v>466</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AA37" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
@@ -3137,7 +3674,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D38" s="7">
         <v>155</v>
@@ -3146,22 +3683,22 @@
         <v>181</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="V38" s="10" t="s">
-        <v>209</v>
+        <v>191</v>
+      </c>
+      <c r="V38" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="W38" s="10" t="s">
         <v>38</v>
@@ -3176,7 +3713,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D39" s="7">
         <v>158</v>
@@ -3185,31 +3722,31 @@
         <v>160</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AA39" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3217,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D40" s="7">
         <v>171</v>
@@ -3226,31 +3763,31 @@
         <v>173</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>215</v>
+        <v>527</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AA40" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
@@ -3258,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D41" s="7">
         <v>187</v>
@@ -3267,7 +3804,7 @@
         <v>188</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>31</v>
@@ -3276,13 +3813,13 @@
         <v>37</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>232</v>
+        <v>492</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>38</v>
@@ -3291,7 +3828,7 @@
         <v>29</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
@@ -3299,7 +3836,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D42" s="7">
         <v>190</v>
@@ -3308,7 +3845,7 @@
         <v>191</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>31</v>
@@ -3317,13 +3854,13 @@
         <v>37</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>235</v>
+        <v>467</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>38</v>
@@ -3332,7 +3869,7 @@
         <v>29</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
@@ -3340,7 +3877,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D43" s="7">
         <v>192</v>
@@ -3349,7 +3886,7 @@
         <v>194</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>31</v>
@@ -3358,13 +3895,13 @@
         <v>37</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>238</v>
+        <v>493</v>
       </c>
       <c r="W43" s="7" t="s">
         <v>38</v>
@@ -3373,7 +3910,7 @@
         <v>29</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
@@ -3381,7 +3918,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D44" s="7">
         <v>195</v>
@@ -3390,22 +3927,22 @@
         <v>197</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>241</v>
+        <v>528</v>
       </c>
       <c r="W44" s="7" t="s">
         <v>38</v>
@@ -3414,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
@@ -3422,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D45" s="7">
         <v>201</v>
@@ -3431,22 +3968,22 @@
         <v>202</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>243</v>
+        <v>529</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>38</v>
@@ -3455,7 +3992,7 @@
         <v>29</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
@@ -3463,7 +4000,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D46" s="7">
         <v>205</v>
@@ -3472,7 +4009,7 @@
         <v>207</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>31</v>
@@ -3481,13 +4018,13 @@
         <v>37</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="W46" s="7" t="s">
         <v>38</v>
@@ -3496,7 +4033,7 @@
         <v>29</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
@@ -3504,7 +4041,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D47" s="7">
         <v>212</v>
@@ -3513,7 +4050,7 @@
         <v>213</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>31</v>
@@ -3522,13 +4059,13 @@
         <v>37</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="W47" s="7" t="s">
         <v>38</v>
@@ -3537,7 +4074,7 @@
         <v>29</v>
       </c>
       <c r="AB47" s="10" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
@@ -3545,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D48" s="7">
         <v>218</v>
@@ -3554,7 +4091,7 @@
         <v>220</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>31</v>
@@ -3563,13 +4100,13 @@
         <v>37</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>38</v>
@@ -3578,7 +4115,7 @@
         <v>29</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
@@ -3586,7 +4123,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D49" s="7">
         <v>221</v>
@@ -3595,7 +4132,7 @@
         <v>222</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>31</v>
@@ -3604,13 +4141,13 @@
         <v>37</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>271</v>
+        <v>496</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>38</v>
@@ -3619,7 +4156,7 @@
         <v>29</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
@@ -3627,7 +4164,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D50" s="7">
         <v>224</v>
@@ -3636,7 +4173,7 @@
         <v>226</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>31</v>
@@ -3645,13 +4182,13 @@
         <v>37</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>273</v>
+        <v>497</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>38</v>
@@ -3660,7 +4197,7 @@
         <v>29</v>
       </c>
       <c r="AB50" s="10" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
@@ -3668,7 +4205,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D51" s="7">
         <v>228</v>
@@ -3677,7 +4214,7 @@
         <v>228</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>31</v>
@@ -3686,13 +4223,13 @@
         <v>37</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="W51" s="7" t="s">
         <v>38</v>
@@ -3701,7 +4238,7 @@
         <v>29</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3709,7 +4246,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D52" s="7">
         <v>229</v>
@@ -3718,7 +4255,7 @@
         <v>231</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>31</v>
@@ -3727,13 +4264,13 @@
         <v>37</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="W52" s="7" t="s">
         <v>38</v>
@@ -3742,7 +4279,7 @@
         <v>29</v>
       </c>
       <c r="AB52" s="10" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
@@ -3750,7 +4287,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D53" s="7">
         <v>233</v>
@@ -3759,7 +4296,7 @@
         <v>234</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>31</v>
@@ -3768,13 +4305,13 @@
         <v>32</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>281</v>
+        <v>447</v>
       </c>
       <c r="W53" s="7" t="s">
         <v>38</v>
@@ -3783,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AB53" s="10" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
@@ -3791,7 +4328,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D54" s="7">
         <v>241</v>
@@ -3800,7 +4337,7 @@
         <v>243</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>31</v>
@@ -3809,13 +4346,13 @@
         <v>37</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>298</v>
+        <v>499</v>
       </c>
       <c r="W54" s="7" t="s">
         <v>38</v>
@@ -3824,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="AB54" s="10" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
@@ -3832,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D55" s="7">
         <v>244</v>
@@ -3841,7 +4378,7 @@
         <v>245</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>31</v>
@@ -3850,13 +4387,13 @@
         <v>37</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="W55" s="7" t="s">
         <v>38</v>
@@ -3865,7 +4402,7 @@
         <v>29</v>
       </c>
       <c r="AB55" s="10" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3873,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D56" s="7">
         <v>247</v>
@@ -3882,22 +4419,22 @@
         <v>248</v>
       </c>
       <c r="K56" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="L56" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="W56" s="7" t="s">
         <v>38</v>
@@ -3906,7 +4443,7 @@
         <v>29</v>
       </c>
       <c r="AB56" s="10" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
@@ -3914,7 +4451,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D57" s="7">
         <v>250</v>
@@ -3923,7 +4460,7 @@
         <v>251</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>31</v>
@@ -3932,13 +4469,13 @@
         <v>37</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="V57" s="10" t="s">
-        <v>305</v>
+        <v>262</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="W57" s="7" t="s">
         <v>38</v>
@@ -3947,7 +4484,7 @@
         <v>29</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3955,7 +4492,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D58" s="7">
         <v>254</v>
@@ -3964,7 +4501,7 @@
         <v>255</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>31</v>
@@ -3973,13 +4510,13 @@
         <v>37</v>
       </c>
       <c r="N58" s="14" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="V58" s="10" t="s">
-        <v>307</v>
+        <v>501</v>
       </c>
       <c r="W58" s="7" t="s">
         <v>38</v>
@@ -3988,7 +4525,7 @@
         <v>29</v>
       </c>
       <c r="AB58" s="10" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3996,7 +4533,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D59" s="7">
         <v>258</v>
@@ -4005,7 +4542,7 @@
         <v>259</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>31</v>
@@ -4014,13 +4551,13 @@
         <v>37</v>
       </c>
       <c r="N59" s="14" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="V59" s="10" t="s">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="W59" s="7" t="s">
         <v>38</v>
@@ -4029,7 +4566,7 @@
         <v>29</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -4037,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D60" s="7">
         <v>261</v>
@@ -4046,7 +4583,7 @@
         <v>262</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>31</v>
@@ -4055,13 +4592,13 @@
         <v>37</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="V60" s="10" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>38</v>
@@ -4070,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="AB60" s="10" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.25">
@@ -4078,7 +4615,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="D61" s="7">
         <v>265</v>
@@ -4087,7 +4624,7 @@
         <v>268</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>31</v>
@@ -4095,15 +4632,13 @@
       <c r="M61" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N61" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="V61" s="10" t="s">
-        <v>199</v>
-      </c>
+      <c r="N61" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="V61" s="10"/>
       <c r="W61" s="7" t="s">
         <v>38</v>
       </c>
@@ -4112,12 +4647,12 @@
       </c>
       <c r="AB61" s="10"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D62" s="7">
         <v>272</v>
@@ -4126,13 +4661,22 @@
         <v>274</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="V62" s="10" t="s">
-        <v>339</v>
+        <v>504</v>
       </c>
       <c r="W62" s="7" t="s">
         <v>38</v>
@@ -4142,12 +4686,12 @@
       </c>
       <c r="AB62" s="10"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D63" s="7">
         <v>277</v>
@@ -4156,13 +4700,22 @@
         <v>278</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M63" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>298</v>
+      </c>
       <c r="V63" s="10" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="W63" s="7" t="s">
         <v>38</v>
@@ -4172,12 +4725,12 @@
       </c>
       <c r="AB63" s="10"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D64" s="7">
         <v>280</v>
@@ -4186,13 +4739,22 @@
         <v>282</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M64" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>300</v>
+      </c>
       <c r="V64" s="10" t="s">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="W64" s="7" t="s">
         <v>38</v>
@@ -4201,12 +4763,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D65" s="7">
         <v>283</v>
@@ -4215,13 +4777,22 @@
         <v>285</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M65" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="V65" s="10" t="s">
-        <v>345</v>
+        <v>507</v>
       </c>
       <c r="W65" s="7" t="s">
         <v>38</v>
@@ -4230,12 +4801,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D66" s="7">
         <v>286</v>
@@ -4244,13 +4815,22 @@
         <v>288</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M66" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="V66" s="10" t="s">
-        <v>347</v>
+        <v>508</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>38</v>
@@ -4259,12 +4839,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D67" s="7">
         <v>290</v>
@@ -4272,14 +4852,23 @@
       <c r="E67" s="7">
         <v>291</v>
       </c>
-      <c r="K67" s="10" t="s">
-        <v>348</v>
+      <c r="K67" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M67" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="V67" s="10" t="s">
-        <v>349</v>
+        <v>469</v>
       </c>
       <c r="W67" s="7" t="s">
         <v>38</v>
@@ -4288,12 +4877,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D68" s="7">
         <v>295</v>
@@ -4302,13 +4891,22 @@
         <v>297</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M68" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="V68" s="10" t="s">
-        <v>352</v>
+        <v>509</v>
       </c>
       <c r="W68" s="7" t="s">
         <v>38</v>
@@ -4317,12 +4915,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D69" s="7">
         <v>299</v>
@@ -4331,13 +4929,22 @@
         <v>300</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M69" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>308</v>
+      </c>
       <c r="V69" s="10" t="s">
-        <v>354</v>
+        <v>470</v>
       </c>
       <c r="W69" s="7" t="s">
         <v>38</v>
@@ -4346,12 +4953,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D70" s="7">
         <v>303</v>
@@ -4359,14 +4966,23 @@
       <c r="E70" s="7">
         <v>304</v>
       </c>
-      <c r="K70" s="10" t="s">
-        <v>355</v>
+      <c r="K70" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V70" s="10" t="s">
-        <v>356</v>
+      <c r="M70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="V70" s="15" t="s">
+        <v>536</v>
       </c>
       <c r="W70" s="7" t="s">
         <v>38</v>
@@ -4375,12 +4991,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D71" s="7">
         <v>306</v>
@@ -4389,13 +5005,22 @@
         <v>307</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M71" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="V71" s="10" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="W71" s="7" t="s">
         <v>38</v>
@@ -4404,12 +5029,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D72" s="7">
         <v>309</v>
@@ -4418,13 +5043,22 @@
         <v>312</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M72" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="V72" s="10" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="W72" s="7" t="s">
         <v>38</v>
@@ -4433,12 +5067,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="D73" s="7">
         <v>318</v>
@@ -4446,14 +5080,23 @@
       <c r="E73" s="7">
         <v>320</v>
       </c>
-      <c r="K73" s="10" t="s">
-        <v>362</v>
+      <c r="K73" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="V73" s="10" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="W73" s="7" t="s">
         <v>38</v>
@@ -4461,10 +5104,16 @@
       <c r="AA73" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB73" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D74" s="7">
         <v>322</v>
@@ -4473,13 +5122,22 @@
         <v>323</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="M74" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="V74" s="10" t="s">
-        <v>365</v>
+        <v>449</v>
       </c>
       <c r="W74" s="7" t="s">
         <v>38</v>
@@ -4488,18 +5146,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D75" s="7">
         <v>326</v>
       </c>
+      <c r="E75" s="7">
+        <v>327</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="L75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V75" s="10" t="s">
-        <v>199</v>
+      <c r="M75" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="V75" s="15" t="s">
+        <v>473</v>
       </c>
       <c r="W75" s="7" t="s">
         <v>38</v>
@@ -4508,15 +5184,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C76" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="7">
+        <v>330</v>
+      </c>
+      <c r="E76" s="7">
+        <v>332</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="L76" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V76" s="10" t="s">
-        <v>199</v>
+      <c r="M76" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N76" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="V76" s="15" t="s">
+        <v>510</v>
       </c>
       <c r="W76" s="7" t="s">
         <v>38</v>
@@ -4525,15 +5222,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C77" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="7">
+        <v>333</v>
+      </c>
+      <c r="E77" s="7">
+        <v>335</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="L77" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V77" s="10" t="s">
-        <v>199</v>
+      <c r="M77" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="O77" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="V77" s="15" t="s">
+        <v>474</v>
       </c>
       <c r="W77" s="7" t="s">
         <v>38</v>
@@ -4542,15 +5260,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C78" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="7">
+        <v>337</v>
+      </c>
+      <c r="E78" s="7">
+        <v>340</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="L78" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V78" s="10" t="s">
-        <v>199</v>
+      <c r="M78" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="O78" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="V78" s="15" t="s">
+        <v>475</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>38</v>
@@ -4559,15 +5298,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C79" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="7">
+        <v>340</v>
+      </c>
+      <c r="E79" s="7">
+        <v>341</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="L79" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V79" s="10" t="s">
-        <v>199</v>
+      <c r="M79" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="V79" s="15" t="s">
+        <v>476</v>
       </c>
       <c r="W79" s="7" t="s">
         <v>38</v>
@@ -4576,15 +5336,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C80" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="7">
+        <v>342</v>
+      </c>
+      <c r="E80" s="7">
+        <v>344</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="L80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V80" s="10" t="s">
-        <v>199</v>
+      <c r="M80" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="V80" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="W80" s="7" t="s">
         <v>38</v>
@@ -4593,15 +5374,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C81" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="7">
+        <v>346</v>
+      </c>
+      <c r="E81" s="7">
+        <v>348</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>383</v>
+      </c>
       <c r="L81" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V81" s="10" t="s">
-        <v>199</v>
+      <c r="M81" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="V81" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="W81" s="7" t="s">
         <v>38</v>
@@ -4610,15 +5412,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C82" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="7">
+        <v>350</v>
+      </c>
+      <c r="E82" s="7">
+        <v>352</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="L82" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V82" s="10" t="s">
-        <v>199</v>
+      <c r="M82" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="V82" s="15" t="s">
+        <v>477</v>
       </c>
       <c r="W82" s="7" t="s">
         <v>38</v>
@@ -4627,15 +5450,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C83" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D83" s="7">
+        <v>353</v>
+      </c>
+      <c r="E83" s="7">
+        <v>355</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>328</v>
+      </c>
       <c r="L83" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V83" s="10" t="s">
-        <v>199</v>
+      <c r="M83" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="O83" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="V83" s="15" t="s">
+        <v>512</v>
       </c>
       <c r="W83" s="7" t="s">
         <v>38</v>
@@ -4644,15 +5488,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V84" s="10" t="s">
-        <v>199</v>
+      <c r="C84" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" s="7">
+        <v>357</v>
+      </c>
+      <c r="E84" s="7">
+        <v>357</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="O84" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="V84" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="W84" s="7" t="s">
         <v>38</v>
@@ -4661,15 +5526,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C85" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="7">
+        <v>362</v>
+      </c>
+      <c r="E85" s="7">
+        <v>363</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>330</v>
+      </c>
       <c r="L85" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V85" s="10" t="s">
-        <v>199</v>
+      <c r="M85" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="V85" s="15" t="s">
+        <v>513</v>
       </c>
       <c r="W85" s="7" t="s">
         <v>38</v>
@@ -4678,15 +5564,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C86" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" s="7">
+        <v>367</v>
+      </c>
+      <c r="E86" s="7">
+        <v>369</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>331</v>
+      </c>
       <c r="L86" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V86" s="10" t="s">
-        <v>199</v>
+      <c r="M86" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N86" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="O86" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V86" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="W86" s="7" t="s">
         <v>38</v>
@@ -4694,16 +5601,40 @@
       <c r="AA86" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB86" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C87" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" s="7">
+        <v>374</v>
+      </c>
+      <c r="E87" s="7">
+        <v>375</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="L87" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V87" s="10" t="s">
-        <v>199</v>
+      <c r="M87" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="O87" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V87" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="W87" s="7" t="s">
         <v>38</v>
@@ -4712,15 +5643,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C88" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="7">
+        <v>378</v>
+      </c>
+      <c r="E88" s="7">
+        <v>379</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="L88" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V88" s="10" t="s">
-        <v>199</v>
+      <c r="M88" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="O88" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V88" s="15" t="s">
+        <v>515</v>
       </c>
       <c r="W88" s="7" t="s">
         <v>38</v>
@@ -4729,15 +5681,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C89" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="7">
+        <v>381</v>
+      </c>
+      <c r="E89" s="7">
+        <v>383</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>335</v>
+      </c>
       <c r="L89" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V89" s="10" t="s">
-        <v>199</v>
+      <c r="M89" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="O89" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="W89" s="7" t="s">
         <v>38</v>
@@ -4746,15 +5719,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C90" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" s="7">
+        <v>388</v>
+      </c>
+      <c r="E90" s="7">
+        <v>390</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="L90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V90" s="10" t="s">
-        <v>199</v>
+      <c r="M90" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N90" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="O90" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="V90" s="15" t="s">
+        <v>517</v>
       </c>
       <c r="W90" s="7" t="s">
         <v>38</v>
@@ -4763,15 +5757,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C91" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" s="7">
+        <v>391</v>
+      </c>
+      <c r="E91" s="7">
+        <v>393</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>396</v>
+      </c>
       <c r="L91" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V91" s="10" t="s">
-        <v>199</v>
+      <c r="M91" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="O91" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="V91" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="W91" s="7" t="s">
         <v>38</v>
@@ -4780,15 +5795,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C92" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" s="7">
+        <v>400</v>
+      </c>
+      <c r="E92" s="7">
+        <v>402</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>341</v>
+      </c>
       <c r="L92" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V92" s="10" t="s">
-        <v>199</v>
+      <c r="M92" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="O92" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="V92" s="15" t="s">
+        <v>479</v>
       </c>
       <c r="W92" s="7" t="s">
         <v>38</v>
@@ -4797,15 +5833,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C93" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="7">
+        <v>404</v>
+      </c>
+      <c r="E93" s="7">
+        <v>400</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>339</v>
+      </c>
       <c r="L93" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V93" s="10" t="s">
-        <v>199</v>
+      <c r="M93" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N93" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="O93" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="V93" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="W93" s="7" t="s">
         <v>38</v>
@@ -4813,16 +5870,40 @@
       <c r="AA93" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB93" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C94" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D94" s="7">
+        <v>408</v>
+      </c>
+      <c r="E94" s="7">
+        <v>410</v>
+      </c>
+      <c r="K94" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="L94" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V94" s="10" t="s">
-        <v>199</v>
+      <c r="M94" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="O94" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="V94" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="W94" s="7" t="s">
         <v>38</v>
@@ -4831,15 +5912,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C95" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="7">
+        <v>411</v>
+      </c>
+      <c r="E95" s="7">
+        <v>413</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="L95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V95" s="10" t="s">
-        <v>199</v>
+      <c r="M95" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N95" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="O95" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="V95" s="15" t="s">
+        <v>451</v>
       </c>
       <c r="W95" s="7" t="s">
         <v>38</v>
@@ -4848,15 +5950,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C96" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" s="7">
+        <v>415</v>
+      </c>
+      <c r="E96" s="7">
+        <v>416</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>343</v>
+      </c>
       <c r="L96" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V96" s="10" t="s">
-        <v>199</v>
+      <c r="M96" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="O96" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="V96" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="W96" s="7" t="s">
         <v>38</v>
@@ -4865,15 +5988,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C97" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D97" s="7">
+        <v>419</v>
+      </c>
+      <c r="E97" s="7">
+        <v>420</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>344</v>
+      </c>
       <c r="L97" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V97" s="10" t="s">
-        <v>199</v>
+      <c r="M97" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="O97" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="V97" s="15" t="s">
+        <v>481</v>
       </c>
       <c r="W97" s="7" t="s">
         <v>38</v>
@@ -4882,15 +6026,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C98" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D98" s="7">
+        <v>421</v>
+      </c>
+      <c r="E98" s="7">
+        <v>423</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="L98" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V98" s="10" t="s">
-        <v>199</v>
+      <c r="M98" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="O98" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="V98" s="15" t="s">
+        <v>482</v>
       </c>
       <c r="W98" s="7" t="s">
         <v>38</v>
@@ -4899,15 +6064,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C99" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" s="7">
+        <v>428</v>
+      </c>
+      <c r="E99" s="7">
+        <v>461</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="L99" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V99" s="10" t="s">
-        <v>199</v>
+      <c r="M99" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N99" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O99" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="V99" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="W99" s="7" t="s">
         <v>38</v>
@@ -4916,25 +6102,491 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C100" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" s="7">
+        <v>433</v>
+      </c>
+      <c r="E100" s="7">
+        <v>435</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="L100" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V100" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W100" s="7" t="s">
-        <v>38</v>
+      <c r="M100" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N100" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O100" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="V100" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="W100" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="AA100" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="AB100" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D101" s="7">
+        <v>441</v>
+      </c>
+      <c r="E101" s="7">
+        <v>443</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="O101" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="V101" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="W101" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB101" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="7">
+        <v>445</v>
+      </c>
+      <c r="E102" s="7">
+        <v>447</v>
+      </c>
+      <c r="K102" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="O102" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="V102" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="W102" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA102" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="7">
+        <v>450</v>
+      </c>
+      <c r="E103" s="7">
+        <v>451</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="L103" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="O103" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="V103" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="W103" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA103" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" s="7">
+        <v>458</v>
+      </c>
+      <c r="E104" s="7">
+        <v>459</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N104" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O104" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="V104" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="W104" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA104" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" s="7">
+        <v>461</v>
+      </c>
+      <c r="E105" s="7">
+        <v>499</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O105" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="V105" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="W105" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA105" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" s="7">
+        <v>468</v>
+      </c>
+      <c r="E106" s="7">
+        <v>470</v>
+      </c>
+      <c r="K106" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="O106" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="V106" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="W106" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA106" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D107" s="7">
+        <v>477</v>
+      </c>
+      <c r="E107" s="7">
+        <v>478</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="O107" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="V107" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="W107" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA107" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D108" s="7">
+        <v>481</v>
+      </c>
+      <c r="E108" s="7">
+        <v>482</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="O108" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="V108" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="W108" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA108" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="7">
+        <v>486</v>
+      </c>
+      <c r="E109" s="7">
+        <v>487</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="O109" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="V109" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="W109" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA109" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="7">
+        <v>492</v>
+      </c>
+      <c r="E110" s="7">
+        <v>493</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N110" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="O110" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="V110" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="W110" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA110" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB110" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" s="7">
+        <v>498</v>
+      </c>
+      <c r="E111" s="7">
+        <v>499</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="O111" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="V111" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="W111" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA111" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="V112" s="15"/>
+    </row>
+    <row r="113" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V113" s="15"/>
+    </row>
+    <row r="114" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V114" s="15"/>
+    </row>
+    <row r="115" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V115" s="15"/>
+    </row>
+    <row r="116" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V116" s="15"/>
+    </row>
+    <row r="117" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V117" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1452" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA442911-BF81-400D-BA01-9ADE76A18A2B}"/>
+  <xr:revisionPtr revIDLastSave="2134" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548E2085-3FBB-4CF3-B569-72B6E9A83CE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="771">
   <si>
     <t>ID</t>
   </si>
@@ -1358,300 +1358,15 @@
     <t>Friesland</t>
   </si>
   <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Neumark.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Altmark.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Dithmarschen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Angelen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Deister.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Jeverland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Sagelterland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Sauerland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Over-Betuwe.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Tielerwaard.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Oldambt.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Ulrum.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Schiermonnikoog.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Leeuwarden.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Dokkum.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bolsward.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Nes op't Ameland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Gemeente (Grietenij) Het Bildt.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Noordwolde.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Dorp Meitzendorf.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Hohen-Dodeleben.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Schlutup.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Oldendorf-Himmelpforten.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Altendorf.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Rechtenfleth.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Eckwarden in Butjadingerland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van  het Dorp Rastede.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Nesse.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Wittlage bij Osnabrück.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Stamproi.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Sambeek (Land van Kuik).</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Rijsbergen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Dussen (Land van Altena).</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Uddel.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Scherpenzeel.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Dinxperlo.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Varsefeld.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Soest.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Zweelo.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Sellingen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Wolstersum.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Den Ham.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Grijpskerk.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Dantzig.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Greifswald.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Nieuw-Brandenburg.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stadt Stavenhagen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad FrederikStad a/d Eider.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zestiende Eeuw.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zeventiende Eeuw.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bremen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stadt Esens.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van  de Stad Norden.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Emden.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Leer.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Vreden.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Munster.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Paderborn.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Emmerik.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Gelderen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Keulen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Bonn.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Aken.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Maastricht.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Sittard.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Roermond.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Venlo.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Weert.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Helmond.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Nijkerk op de Veluwe.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Zutfen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Utrecht.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Oldenzaal.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Deventer.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Zwolle.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Stadje Zwartsluis.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Meppel.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Groningen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Stad Workum, zoo als die nog omstreeks het jaar 1800 daar algemeen gesproken werd.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Hindeloopen.</t>
-  </si>
-  <si>
     <t>FriedrichStadt a/d Eider</t>
   </si>
   <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Koningsbergen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Putbus op het Eiland Rügen.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Amrum.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Sylt.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Helgoland.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Wangeroog.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Nordernei.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Eiland Borkum.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Bökingharde of den Moringer Tongval.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van Stedesand of van de Karrharde.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Dorp Hattstedt od den Gosharder Tongval.</t>
-  </si>
-  <si>
     <t>De nederduitsche Taal in Oldenburg.</t>
   </si>
   <si>
     <t>De friesche Taal in Oldenburg.</t>
   </si>
   <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van de Stad Düsseldorp.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Vlek Oorschot.</t>
-  </si>
-  <si>
-    <t>De Gelijkenis van de verlorenen Zoon in den Tongval van het Vlek Winterswijk.</t>
-  </si>
-  <si>
     <t>De Gelijkenis van den verlorenen Zoon in de platzte Spraak van de laagste Klasse des Volks te Utrecht.</t>
   </si>
   <si>
@@ -1661,16 +1376,995 @@
     <t>De friesche Taal in Friesland.</t>
   </si>
   <si>
-    <t>De Gelijkenis van de verlorenen Zoon in de friesche Taal, den hendendaagschen Dialectus Communis van de Provincie Friesland.</t>
+    <t>wink2</t>
+  </si>
+  <si>
+    <t>Noord-Holland.</t>
+  </si>
+  <si>
+    <t>Texel</t>
+  </si>
+  <si>
+    <t>Wieringen</t>
+  </si>
+  <si>
+    <t>Schagen</t>
+  </si>
+  <si>
+    <t>Benningbroek</t>
+  </si>
+  <si>
+    <t>Enkhuizen.</t>
+  </si>
+  <si>
+    <t>Hoorn</t>
+  </si>
+  <si>
+    <t>Urk</t>
+  </si>
+  <si>
+    <t>Marken</t>
+  </si>
+  <si>
+    <t>Holijsloot</t>
+  </si>
+  <si>
+    <t>Zaankant</t>
+  </si>
+  <si>
+    <t>Heemskerk</t>
+  </si>
+  <si>
+    <t>Egmond aan Zee</t>
+  </si>
+  <si>
+    <t>Zandvoort</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>in Haarlem verorten? Übersetzung des Titels: ...wie es unter anderem in Haarlem gesprochen wird</t>
+  </si>
+  <si>
+    <t>Amsterdam Kalver-Straatsch</t>
+  </si>
+  <si>
+    <t>Laren</t>
+  </si>
+  <si>
+    <t>Huizen</t>
+  </si>
+  <si>
+    <t>Zuid-Holland.</t>
+  </si>
+  <si>
+    <t>52.6186047</t>
+  </si>
+  <si>
+    <t>4.6299792</t>
+  </si>
+  <si>
+    <t>53.3627668</t>
+  </si>
+  <si>
+    <t>5.2161834</t>
+  </si>
+  <si>
+    <t>West-Terschelling</t>
+  </si>
+  <si>
+    <t>53.4043827</t>
+  </si>
+  <si>
+    <t>5.3797201</t>
+  </si>
+  <si>
+    <t>Eosterend</t>
+  </si>
+  <si>
+    <t>Schelling heißt heute Terschelling.</t>
+  </si>
+  <si>
+    <t>vermutlich ist Oosterend das ehemalige Ost-Schelling. Aber keine eindeutigen Infos gefunden</t>
+  </si>
+  <si>
+    <t>53.3827811</t>
+  </si>
+  <si>
+    <t>5.2866988</t>
+  </si>
+  <si>
+    <t>Midsland</t>
+  </si>
+  <si>
+    <t>53.2604345</t>
+  </si>
+  <si>
+    <t>4.9553480</t>
+  </si>
+  <si>
+    <t>Vlieland</t>
+  </si>
+  <si>
+    <t>53.0895755</t>
+  </si>
+  <si>
+    <t>4.8067753</t>
+  </si>
+  <si>
+    <t>52.9004534</t>
+  </si>
+  <si>
+    <t>4.9701614</t>
+  </si>
+  <si>
+    <t>die gemiende wieringen gibts es seit 2012 nicht mehr, mit anderen gemeinden zusammengelgt zur neuen gemeinde Hollands Kroon. Koords bei Hippolytushoef, etw mktte der ehemaligen gemeinde. Wieringen war mal insel</t>
+  </si>
+  <si>
+    <t>52.7881285</t>
+  </si>
+  <si>
+    <t>4.8029025</t>
+  </si>
+  <si>
+    <t>52.7042280</t>
+  </si>
+  <si>
+    <t>5.0122439</t>
+  </si>
+  <si>
+    <t>52.7100419</t>
+  </si>
+  <si>
+    <t>5.2741888</t>
+  </si>
+  <si>
+    <t>52.6445694</t>
+  </si>
+  <si>
+    <t>5.0616420</t>
+  </si>
+  <si>
+    <t>52.6629868</t>
+  </si>
+  <si>
+    <t>5.5984702</t>
+  </si>
+  <si>
+    <t>war mal insel</t>
+  </si>
+  <si>
+    <t>52.4570226</t>
+  </si>
+  <si>
+    <t>5.1077562</t>
+  </si>
+  <si>
+    <t>52.4134693</t>
+  </si>
+  <si>
+    <t>5.0256314</t>
+  </si>
+  <si>
+    <t>52.4808492</t>
+  </si>
+  <si>
+    <t>4.8134783</t>
+  </si>
+  <si>
+    <t>koords bei Zaandijk an der Zaan. Zaankant als Ort scheint es nicht mehr nzu geben und man findet auch keine Infos</t>
+  </si>
+  <si>
+    <t>52.5141980</t>
+  </si>
+  <si>
+    <t>4.6825175</t>
+  </si>
+  <si>
+    <t>52.3717446</t>
+  </si>
+  <si>
+    <t>4.5315820</t>
+  </si>
+  <si>
+    <t>52.3868560</t>
+  </si>
+  <si>
+    <t>4.6437643</t>
+  </si>
+  <si>
+    <t>52.2571877</t>
+  </si>
+  <si>
+    <t>5.2220136</t>
+  </si>
+  <si>
+    <t>52.2997997</t>
+  </si>
+  <si>
+    <t>5.2421642</t>
+  </si>
+  <si>
+    <t>52.3700514</t>
+  </si>
+  <si>
+    <t>4.8913583</t>
+  </si>
+  <si>
+    <t>hat jetzt andere koord als Amsterdam bekommen - soll so?</t>
+  </si>
+  <si>
+    <t>Woubrugge</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>Noordwijk an Zee</t>
+  </si>
+  <si>
+    <t>Proeve van den Tongval van het Dorp Noordwijk aan Zee.</t>
+  </si>
+  <si>
+    <t>Katwijk aan Zee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Gelijkenis van den verlorenen Zoon in den Tongval van </t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Koningsbergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Dantzig.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Greifswald.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Putbus op het Eiland Rügen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Neumark.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Altmark.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Dorp Meitzendorf.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Hohen-Dodeleben.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Nieuw-Brandenburg.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stadt Stavenhagen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad FrederikStad a/d Eider.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Dithmarschen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Angelen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Bökingharde of den Moringer Tongval.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Stedesand of van de Karrharde.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Hattstedt od den Gosharder Tongval.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Amrum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Sylt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Helgoland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Schlutup.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hamburg.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zestiende Eeuw.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hamburg, uit de zeventiende Eeuw.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Bremen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Deister.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Oldendorf-Himmelpforten.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Altendorf.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Rechtenfleth.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Eckwarden in Butjadingerland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Jeverland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van  het Dorp Rastede.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Sagelterland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Wangeroog.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stadt Esens.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Nesse.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van  de Stad Norden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Nordernei.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Borkum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Emden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Leer.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Wittlage bij Osnabrück.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Vreden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Munster.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Paderborn.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Sauerland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Emmerik.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Gelderen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Düsseldorp.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Keulen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Bonn.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Aken.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Maastricht.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Sittard.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Roermond.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Venlo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Weert.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Stamproi.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Helmond.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Sambeek (Land van Kuik).</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Vlek Oorschot.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Rijsbergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Dussen (Land van Altena).</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Over-Betuwe.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Tielerwaard.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Uddel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Nijkerk op de Veluwe.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Scherpenzeel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Dinxperlo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Varsefeld.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Vlek Winterswijk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Zutfen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Soest.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Utrecht.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Oldenzaal.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Deventer.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Zwolle.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Stadje Zwartsluis.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Meppel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Zweelo.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Sellingen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Oldambt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Wolstersum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Ulrum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Groningen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Den Ham.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Grijpskerk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in de friesche Taal, den hendendaagschen Dialectus Communis van de Provincie Friesland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Stad Workum, zoo als die nog omstreeks het jaar 1800 daar algemeen gesproken werd.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hindeloopen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Schiermonnikoog.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Leeuwarden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Dokkum.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Bolsward.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Nes op't Ameland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Gemeente (Grietenij) Het Bildt.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Noordwolde.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Wester-Schelling.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Ooster-Schelling.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Midslands.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Flieland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Texel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Wieringen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Vlek Schagen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Benningbroek.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Enkhuizen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hoorn.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Urk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Marken.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Holijsloot.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Zaankant.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Heemskerk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Egmond an Zee.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Zandvoort.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Haarlem.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den modern hollandischen Tongval, zooals die onder anderen te Haarlem wurdt gesproken.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Amsterdam (Kalver-Straatsch).</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Laren.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Huizen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Woubrugge.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Leiden.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Katwijk aan Zee.</t>
+  </si>
+  <si>
+    <t>Scheveningen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Scheveningen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van 's Gravenhage.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp 's Gravesande.</t>
+  </si>
+  <si>
+    <t>Groot-Ammers</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Groot-Ammers.</t>
+  </si>
+  <si>
+    <t>Gorinchem</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Gorinchem.</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Rotterdam.</t>
+  </si>
+  <si>
+    <t>Vlaardingen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Vlaardingen.</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Dordrecht.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Oud-Beierland.</t>
+  </si>
+  <si>
+    <t>Brielle</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Brielle.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Gehucht de Tinte.</t>
+  </si>
+  <si>
+    <t>Nieuwe-Tonge</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Nieuwe-Tonge.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Ouddorp op West-Voorne.</t>
+  </si>
+  <si>
+    <t>Zeeland.</t>
+  </si>
+  <si>
+    <t>52.1096969</t>
+  </si>
+  <si>
+    <t>4.2786325</t>
+  </si>
+  <si>
+    <t>52.1693253</t>
+  </si>
+  <si>
+    <t>4.6369747</t>
+  </si>
+  <si>
+    <t>52.1608607</t>
+  </si>
+  <si>
+    <t>4.4927464</t>
+  </si>
+  <si>
+    <t>52.2426663</t>
+  </si>
+  <si>
+    <t>4.4296930</t>
+  </si>
+  <si>
+    <t>52.1999292</t>
+  </si>
+  <si>
+    <t>4.4102924</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>s Gravenhage ist der Amtsname von Den Haag</t>
+  </si>
+  <si>
+    <t>52.0700590</t>
+  </si>
+  <si>
+    <t>4.3049008</t>
+  </si>
+  <si>
+    <t>s Gravenzande</t>
+  </si>
+  <si>
+    <t>52.0015108</t>
+  </si>
+  <si>
+    <t>4.1668408</t>
+  </si>
+  <si>
+    <t>51.9250823</t>
+  </si>
+  <si>
+    <t>4.8225037</t>
+  </si>
+  <si>
+    <t>51.8375490</t>
+  </si>
+  <si>
+    <t>4.9746854</t>
+  </si>
+  <si>
+    <t>51.9256876</t>
+  </si>
+  <si>
+    <t>4.4700053</t>
+  </si>
+  <si>
+    <t>51.9121152</t>
+  </si>
+  <si>
+    <t>4.3496141</t>
+  </si>
+  <si>
+    <t>51.8131220</t>
+  </si>
+  <si>
+    <t>4.6870067</t>
+  </si>
+  <si>
+    <t>51.8190710</t>
+  </si>
+  <si>
+    <t>4.4249620</t>
+  </si>
+  <si>
+    <t>Oud-Beijerland</t>
+  </si>
+  <si>
+    <t>51.9038684</t>
+  </si>
+  <si>
+    <t>4.1628850</t>
+  </si>
+  <si>
+    <t>51.8102209</t>
+  </si>
+  <si>
+    <t>3.9344964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouddorp </t>
+  </si>
+  <si>
+    <t>im Gebiet der ehemaligen Gemeinde West-Voorne gibt es kein ouddorp, Das einzige Ouddorp dass ich jetzt gefunden habe liegt eine Halbinsel weiter südlich</t>
+  </si>
+  <si>
+    <t>51.8875410</t>
+  </si>
+  <si>
+    <t>4.1361442</t>
+  </si>
+  <si>
+    <t>Tinte</t>
+  </si>
+  <si>
+    <t>51.7138438</t>
+  </si>
+  <si>
+    <t>4.1651250</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Burg op Schouwen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Tolen.</t>
+  </si>
+  <si>
+    <t>Zuid-Beveland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Zuid-Beveland.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Dorpen Wemeldinge, Ierseke en Kattendijke (Noord-Osstelijk Zuid-Beveland).</t>
+  </si>
+  <si>
+    <t>Goes</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Goes.</t>
+  </si>
+  <si>
+    <t>Noord-Beveland</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Eiland Noord-Beveland.</t>
+  </si>
+  <si>
+    <t>Walcheren</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den gewonen Plattelands-Tongval van't Eiland Walcheren.</t>
+  </si>
+  <si>
+    <t>Arnemuiden</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Stadje Arnemuiden.</t>
+  </si>
+  <si>
+    <t>Hulst</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hulst.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Land van Aksel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Land van Kadzand.</t>
+  </si>
+  <si>
+    <t>Sluis</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Sluis.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Aardenburg.</t>
+  </si>
+  <si>
+    <t>Eede, Heille</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Dorpen Eede en Heille.</t>
+  </si>
+  <si>
+    <t>Zuid-nederland.</t>
+  </si>
+  <si>
+    <t>51.5215400</t>
+  </si>
+  <si>
+    <t>3.5733521</t>
+  </si>
+  <si>
+    <t>51.6901730</t>
+  </si>
+  <si>
+    <t>3.7356104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burg </t>
+  </si>
+  <si>
+    <t>51.5665263</t>
+  </si>
+  <si>
+    <t>4.1301546</t>
+  </si>
+  <si>
+    <t>Tholen</t>
+  </si>
+  <si>
+    <t>51.4806037</t>
+  </si>
+  <si>
+    <t>3.8367968</t>
+  </si>
+  <si>
+    <t>51.5760013</t>
+  </si>
+  <si>
+    <t>3.7628376</t>
+  </si>
+  <si>
+    <t>51.5032710</t>
+  </si>
+  <si>
+    <t>3.8917782</t>
+  </si>
+  <si>
+    <t>51.5014140</t>
+  </si>
+  <si>
+    <t>3.6755894</t>
+  </si>
+  <si>
+    <t>51.2808002</t>
+  </si>
+  <si>
+    <t>4.0547157</t>
+  </si>
+  <si>
+    <t>Aardenburg</t>
+  </si>
+  <si>
+    <t>51.3085335</t>
+  </si>
+  <si>
+    <t>3.3864877</t>
+  </si>
+  <si>
+    <t>51.2734748</t>
+  </si>
+  <si>
+    <t>3.4411924</t>
+  </si>
+  <si>
+    <t>51.2469649</t>
+  </si>
+  <si>
+    <t>3.4429534</t>
+  </si>
+  <si>
+    <t>51.2664563</t>
+  </si>
+  <si>
+    <t>3.4131955</t>
+  </si>
+  <si>
+    <t>51.5174707</t>
+  </si>
+  <si>
+    <t>3.9960298</t>
+  </si>
+  <si>
+    <t>Wemeldinge, Yerseke, Kattendijke</t>
+  </si>
+  <si>
+    <t>51.4932164</t>
+  </si>
+  <si>
+    <t>51.5234487</t>
+  </si>
+  <si>
+    <t>3.9443289</t>
+  </si>
+  <si>
+    <t>51.2670722</t>
+  </si>
+  <si>
+    <t>3.9081201</t>
+  </si>
+  <si>
+    <t>Land van Axel</t>
+  </si>
+  <si>
+    <t>51.3695167</t>
+  </si>
+  <si>
+    <t>3.4068687</t>
+  </si>
+  <si>
+    <t>Land van Cadzand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1759,27 +2453,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,11 +2797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V103" sqref="V103"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,12 +2812,12 @@
     <col min="6" max="7" width="3" style="7" customWidth="1"/>
     <col min="8" max="8" width="2.625" style="7" customWidth="1"/>
     <col min="9" max="10" width="2.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="27" style="7" customWidth="1"/>
     <col min="12" max="13" width="11" style="7"/>
     <col min="14" max="15" width="11" style="14"/>
-    <col min="16" max="16" width="3.375" style="7" customWidth="1"/>
-    <col min="17" max="20" width="3.5" style="7" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="5" customWidth="1"/>
+    <col min="17" max="20" width="3.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="5" customWidth="1"/>
     <col min="22" max="22" width="78.375" style="7" customWidth="1"/>
     <col min="23" max="23" width="11" style="7"/>
     <col min="24" max="25" width="2.75" style="7" customWidth="1"/>
@@ -2174,22 +2873,22 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -2313,7 +3012,7 @@
         <v>85</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>38</v>
@@ -2354,7 +3053,7 @@
         <v>88</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>38</v>
@@ -2395,7 +3094,7 @@
         <v>90</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>38</v>
@@ -2436,7 +3135,7 @@
         <v>108</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>38</v>
@@ -2477,7 +3176,7 @@
         <v>92</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>38</v>
@@ -2518,7 +3217,7 @@
         <v>95</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>38</v>
@@ -2559,7 +3258,7 @@
         <v>110</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>38</v>
@@ -2600,7 +3299,7 @@
         <v>112</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>460</v>
+        <v>532</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>38</v>
@@ -2641,7 +3340,7 @@
         <v>115</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>38</v>
@@ -2682,7 +3381,7 @@
         <v>118</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>38</v>
@@ -2708,7 +3407,7 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -2723,7 +3422,7 @@
         <v>120</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>38</v>
@@ -2764,7 +3463,7 @@
         <v>98</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>38</v>
@@ -2805,7 +3504,7 @@
         <v>100</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>38</v>
@@ -2846,7 +3545,7 @@
         <v>122</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>38</v>
@@ -2887,7 +3586,7 @@
         <v>125</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>38</v>
@@ -2928,7 +3627,7 @@
         <v>127</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>38</v>
@@ -2969,7 +3668,7 @@
         <v>102</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>38</v>
@@ -3010,7 +3709,7 @@
         <v>106</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>38</v>
@@ -3051,7 +3750,7 @@
         <v>104</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>38</v>
@@ -3092,7 +3791,7 @@
         <v>158</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="W23" s="7" t="s">
         <v>38</v>
@@ -3133,7 +3832,7 @@
         <v>148</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="W24" s="7" t="s">
         <v>38</v>
@@ -3174,7 +3873,7 @@
         <v>148</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>38</v>
@@ -3212,7 +3911,7 @@
         <v>148</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="W26" s="7" t="s">
         <v>38</v>
@@ -3250,7 +3949,7 @@
         <v>150</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="W27" s="7" t="s">
         <v>38</v>
@@ -3291,7 +3990,7 @@
         <v>152</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>444</v>
+        <v>549</v>
       </c>
       <c r="W28" s="7" t="s">
         <v>38</v>
@@ -3414,7 +4113,7 @@
         <v>160</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>38</v>
@@ -3455,7 +4154,7 @@
         <v>163</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>463</v>
+        <v>551</v>
       </c>
       <c r="W32" s="7" t="s">
         <v>38</v>
@@ -3496,7 +4195,7 @@
         <v>156</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="W33" s="7" t="s">
         <v>38</v>
@@ -3537,7 +4236,7 @@
         <v>191</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>533</v>
+        <v>441</v>
       </c>
       <c r="W34" s="10" t="s">
         <v>38</v>
@@ -3575,7 +4274,7 @@
         <v>193</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
       <c r="W35" s="10" t="s">
         <v>169</v>
@@ -3616,7 +4315,7 @@
         <v>183</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>445</v>
+        <v>554</v>
       </c>
       <c r="W36" s="10" t="s">
         <v>169</v>
@@ -3657,7 +4356,7 @@
         <v>185</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="W37" s="10" t="s">
         <v>169</v>
@@ -3698,7 +4397,7 @@
         <v>191</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
       <c r="W38" s="10" t="s">
         <v>38</v>
@@ -3737,7 +4436,7 @@
         <v>189</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="W39" s="10" t="s">
         <v>169</v>
@@ -3778,7 +4477,7 @@
         <v>187</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="W40" s="10" t="s">
         <v>169</v>
@@ -3819,7 +4518,7 @@
         <v>206</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="W41" s="7" t="s">
         <v>38</v>
@@ -3860,7 +4559,7 @@
         <v>208</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>38</v>
@@ -3901,7 +4600,7 @@
         <v>210</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="W43" s="7" t="s">
         <v>38</v>
@@ -3942,7 +4641,7 @@
         <v>212</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="W44" s="7" t="s">
         <v>38</v>
@@ -3983,7 +4682,7 @@
         <v>214</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>38</v>
@@ -4024,7 +4723,7 @@
         <v>216</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="W46" s="7" t="s">
         <v>38</v>
@@ -4065,7 +4764,7 @@
         <v>220</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="W47" s="7" t="s">
         <v>38</v>
@@ -4106,7 +4805,7 @@
         <v>237</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>38</v>
@@ -4147,7 +4846,7 @@
         <v>239</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>38</v>
@@ -4188,7 +4887,7 @@
         <v>241</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>38</v>
@@ -4270,7 +4969,7 @@
         <v>235</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="W52" s="7" t="s">
         <v>38</v>
@@ -4311,7 +5010,7 @@
         <v>246</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
       <c r="W53" s="7" t="s">
         <v>38</v>
@@ -4352,7 +5051,7 @@
         <v>266</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="W54" s="7" t="s">
         <v>38</v>
@@ -4393,7 +5092,7 @@
         <v>269</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="W55" s="7" t="s">
         <v>38</v>
@@ -4475,7 +5174,7 @@
         <v>262</v>
       </c>
       <c r="V57" s="15" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="W57" s="7" t="s">
         <v>38</v>
@@ -4516,7 +5215,7 @@
         <v>272</v>
       </c>
       <c r="V58" s="10" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="W58" s="7" t="s">
         <v>38</v>
@@ -4557,7 +5256,7 @@
         <v>264</v>
       </c>
       <c r="V59" s="10" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="W59" s="7" t="s">
         <v>38</v>
@@ -4598,7 +5297,7 @@
         <v>275</v>
       </c>
       <c r="V60" s="10" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>38</v>
@@ -4676,7 +5375,7 @@
         <v>296</v>
       </c>
       <c r="V62" s="10" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="W62" s="7" t="s">
         <v>38</v>
@@ -4715,7 +5414,7 @@
         <v>298</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="W63" s="7" t="s">
         <v>38</v>
@@ -4754,7 +5453,7 @@
         <v>300</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="W64" s="7" t="s">
         <v>38</v>
@@ -4792,7 +5491,7 @@
         <v>304</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="W65" s="7" t="s">
         <v>38</v>
@@ -4830,7 +5529,7 @@
         <v>302</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>38</v>
@@ -4868,7 +5567,7 @@
         <v>427</v>
       </c>
       <c r="V67" s="10" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="W67" s="7" t="s">
         <v>38</v>
@@ -4906,7 +5605,7 @@
         <v>306</v>
       </c>
       <c r="V68" s="10" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="W68" s="7" t="s">
         <v>38</v>
@@ -4944,7 +5643,7 @@
         <v>308</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
       <c r="W69" s="7" t="s">
         <v>38</v>
@@ -4982,7 +5681,7 @@
         <v>310</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="W70" s="7" t="s">
         <v>38</v>
@@ -5020,7 +5719,7 @@
         <v>313</v>
       </c>
       <c r="V71" s="10" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="W71" s="7" t="s">
         <v>38</v>
@@ -5058,7 +5757,7 @@
         <v>315</v>
       </c>
       <c r="V72" s="10" t="s">
-        <v>472</v>
+        <v>586</v>
       </c>
       <c r="W72" s="7" t="s">
         <v>38</v>
@@ -5096,7 +5795,7 @@
         <v>317</v>
       </c>
       <c r="V73" s="10" t="s">
-        <v>448</v>
+        <v>587</v>
       </c>
       <c r="W73" s="7" t="s">
         <v>38</v>
@@ -5137,7 +5836,7 @@
         <v>321</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
       <c r="W74" s="7" t="s">
         <v>38</v>
@@ -5175,7 +5874,7 @@
         <v>373</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="W75" s="7" t="s">
         <v>38</v>
@@ -5213,7 +5912,7 @@
         <v>375</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="W76" s="7" t="s">
         <v>38</v>
@@ -5251,7 +5950,7 @@
         <v>378</v>
       </c>
       <c r="V77" s="15" t="s">
-        <v>474</v>
+        <v>591</v>
       </c>
       <c r="W77" s="7" t="s">
         <v>38</v>
@@ -5289,7 +5988,7 @@
         <v>380</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>475</v>
+        <v>592</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>38</v>
@@ -5327,7 +6026,7 @@
         <v>430</v>
       </c>
       <c r="V79" s="15" t="s">
-        <v>476</v>
+        <v>593</v>
       </c>
       <c r="W79" s="7" t="s">
         <v>38</v>
@@ -5365,7 +6064,7 @@
         <v>432</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="W80" s="7" t="s">
         <v>38</v>
@@ -5403,7 +6102,7 @@
         <v>382</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="W81" s="7" t="s">
         <v>38</v>
@@ -5441,7 +6140,7 @@
         <v>385</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>477</v>
+        <v>596</v>
       </c>
       <c r="W82" s="7" t="s">
         <v>38</v>
@@ -5479,7 +6178,7 @@
         <v>387</v>
       </c>
       <c r="V83" s="15" t="s">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="W83" s="7" t="s">
         <v>38</v>
@@ -5517,7 +6216,7 @@
         <v>387</v>
       </c>
       <c r="V84" s="15" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="W84" s="7" t="s">
         <v>38</v>
@@ -5555,7 +6254,7 @@
         <v>389</v>
       </c>
       <c r="V85" s="15" t="s">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="W85" s="7" t="s">
         <v>38</v>
@@ -5593,7 +6292,7 @@
         <v>360</v>
       </c>
       <c r="V86" s="15" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="W86" s="7" t="s">
         <v>38</v>
@@ -5634,7 +6333,7 @@
         <v>362</v>
       </c>
       <c r="V87" s="15" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="W87" s="7" t="s">
         <v>38</v>
@@ -5672,7 +6371,7 @@
         <v>364</v>
       </c>
       <c r="V88" s="15" t="s">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="W88" s="7" t="s">
         <v>38</v>
@@ -5710,7 +6409,7 @@
         <v>391</v>
       </c>
       <c r="V89" s="15" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="W89" s="7" t="s">
         <v>38</v>
@@ -5748,7 +6447,7 @@
         <v>393</v>
       </c>
       <c r="V90" s="15" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="W90" s="7" t="s">
         <v>38</v>
@@ -5786,7 +6485,7 @@
         <v>395</v>
       </c>
       <c r="V91" s="15" t="s">
-        <v>478</v>
+        <v>603</v>
       </c>
       <c r="W91" s="7" t="s">
         <v>38</v>
@@ -5824,7 +6523,7 @@
         <v>398</v>
       </c>
       <c r="V92" s="15" t="s">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="W92" s="7" t="s">
         <v>38</v>
@@ -5862,7 +6561,7 @@
         <v>434</v>
       </c>
       <c r="V93" s="15" t="s">
-        <v>450</v>
+        <v>605</v>
       </c>
       <c r="W93" s="7" t="s">
         <v>38</v>
@@ -5903,7 +6602,7 @@
         <v>400</v>
       </c>
       <c r="V94" s="15" t="s">
-        <v>480</v>
+        <v>606</v>
       </c>
       <c r="W94" s="7" t="s">
         <v>38</v>
@@ -5941,7 +6640,7 @@
         <v>402</v>
       </c>
       <c r="V95" s="15" t="s">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="W95" s="7" t="s">
         <v>38</v>
@@ -5979,7 +6678,7 @@
         <v>404</v>
       </c>
       <c r="V96" s="15" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="W96" s="7" t="s">
         <v>38</v>
@@ -6017,7 +6716,7 @@
         <v>406</v>
       </c>
       <c r="V97" s="15" t="s">
-        <v>481</v>
+        <v>609</v>
       </c>
       <c r="W97" s="7" t="s">
         <v>38</v>
@@ -6055,7 +6754,7 @@
         <v>408</v>
       </c>
       <c r="V98" s="15" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
       <c r="W98" s="7" t="s">
         <v>38</v>
@@ -6093,7 +6792,7 @@
         <v>370</v>
       </c>
       <c r="V99" s="15" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="W99" s="7" t="s">
         <v>38</v>
@@ -6131,7 +6830,7 @@
         <v>370</v>
       </c>
       <c r="V100" s="15" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="W100" s="15" t="s">
         <v>169</v>
@@ -6172,7 +6871,7 @@
         <v>410</v>
       </c>
       <c r="V101" s="15" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="W101" s="15" t="s">
         <v>169</v>
@@ -6213,7 +6912,7 @@
         <v>413</v>
       </c>
       <c r="V102" s="15" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="W102" s="15" t="s">
         <v>169</v>
@@ -6289,7 +6988,7 @@
         <v>417</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>452</v>
+        <v>614</v>
       </c>
       <c r="W104" s="15" t="s">
         <v>169</v>
@@ -6365,7 +7064,7 @@
         <v>366</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>453</v>
+        <v>615</v>
       </c>
       <c r="W106" s="15" t="s">
         <v>169</v>
@@ -6403,7 +7102,7 @@
         <v>419</v>
       </c>
       <c r="V107" s="15" t="s">
-        <v>454</v>
+        <v>616</v>
       </c>
       <c r="W107" s="15" t="s">
         <v>169</v>
@@ -6441,7 +7140,7 @@
         <v>368</v>
       </c>
       <c r="V108" s="15" t="s">
-        <v>455</v>
+        <v>617</v>
       </c>
       <c r="W108" s="15" t="s">
         <v>169</v>
@@ -6479,7 +7178,7 @@
         <v>421</v>
       </c>
       <c r="V109" s="15" t="s">
-        <v>456</v>
+        <v>618</v>
       </c>
       <c r="W109" s="15" t="s">
         <v>169</v>
@@ -6517,7 +7216,7 @@
         <v>437</v>
       </c>
       <c r="V110" s="15" t="s">
-        <v>457</v>
+        <v>619</v>
       </c>
       <c r="W110" s="15" t="s">
         <v>169</v>
@@ -6558,7 +7257,7 @@
         <v>424</v>
       </c>
       <c r="V111" s="15" t="s">
-        <v>458</v>
+        <v>620</v>
       </c>
       <c r="W111" s="15" t="s">
         <v>169</v>
@@ -6568,25 +7267,2239 @@
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="V112" s="15"/>
-    </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V113" s="15"/>
-    </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V114" s="15"/>
-    </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V115" s="15"/>
-    </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V116" s="15"/>
-    </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V117" s="15"/>
+      <c r="B112" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D112" s="7">
+        <v>10</v>
+      </c>
+      <c r="E112" s="7">
+        <v>12</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N112" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="O112" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="V112" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="W112" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA112" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB112" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B113" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D113" s="7">
+        <v>15</v>
+      </c>
+      <c r="E113" s="7">
+        <v>16</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N113" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="O113" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="V113" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="W113" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA113" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB113" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B114" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="7">
+        <v>18</v>
+      </c>
+      <c r="E114" s="7">
+        <v>90</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N114" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="O114" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="V114" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="W114" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA114" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B115" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="7">
+        <v>22</v>
+      </c>
+      <c r="E115" s="7">
+        <v>24</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N115" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="O115" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="V115" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="W115" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA115" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B116" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" s="7">
+        <v>26</v>
+      </c>
+      <c r="E116" s="7">
+        <v>27</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N116" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="O116" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="V116" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="W116" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA116" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B117" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" s="7">
+        <v>30</v>
+      </c>
+      <c r="E117" s="7">
+        <v>32</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L117" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N117" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="O117" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="V117" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="W117" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA117" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB117" s="18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B118" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="7">
+        <v>35</v>
+      </c>
+      <c r="E118" s="7">
+        <v>37</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="O118" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="V118" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="W118" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA118" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B119" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D119" s="7">
+        <v>41</v>
+      </c>
+      <c r="E119" s="7">
+        <v>42</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N119" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="O119" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="V119" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="W119" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA119" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B120" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" s="7">
+        <v>45</v>
+      </c>
+      <c r="E120" s="7">
+        <v>46</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L120" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N120" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="O120" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="V120" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="W120" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA120" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B121" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D121" s="7">
+        <v>47</v>
+      </c>
+      <c r="E121" s="7">
+        <v>40</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="L121" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N121" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="O121" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="V121" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="W121" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA121" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B122" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D122" s="7">
+        <v>54</v>
+      </c>
+      <c r="E122" s="7">
+        <v>55</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="L122" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N122" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="O122" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="V122" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="W122" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA122" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB122" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B123" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D123" s="7">
+        <v>58</v>
+      </c>
+      <c r="E123" s="7">
+        <v>59</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L123" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N123" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="O123" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="V123" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="W123" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA123" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B124" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D124" s="7">
+        <v>62</v>
+      </c>
+      <c r="E124" s="7">
+        <v>63</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N124" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="O124" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="V124" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="W124" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA124" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B125" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D125" s="7">
+        <v>65</v>
+      </c>
+      <c r="E125" s="7">
+        <v>66</v>
+      </c>
+      <c r="K125" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="L125" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N125" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="O125" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="V125" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="W125" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA125" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB125" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B126" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D126" s="7">
+        <v>68</v>
+      </c>
+      <c r="E126" s="7">
+        <v>70</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="L126" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N126" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="O126" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="V126" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="W126" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA126" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B127" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D127" s="7">
+        <v>71</v>
+      </c>
+      <c r="E127" s="7">
+        <v>73</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="L127" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N127" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="O127" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="V127" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="W127" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA127" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B128" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D128" s="7">
+        <v>74</v>
+      </c>
+      <c r="E128" s="7">
+        <v>76</v>
+      </c>
+      <c r="K128" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="L128" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N128" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="O128" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="V128" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="W128" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA128" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B129" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D129" s="7">
+        <v>79</v>
+      </c>
+      <c r="E129" s="7">
+        <v>80</v>
+      </c>
+      <c r="K129" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N129" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="O129" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="V129" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="W129" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA129" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B130" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D130" s="7">
+        <v>82</v>
+      </c>
+      <c r="E130" s="7">
+        <v>83</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="L130" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N130" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="O130" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="V130" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="W130" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA130" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB130" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B131" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" s="7">
+        <v>93</v>
+      </c>
+      <c r="E131" s="7">
+        <v>96</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="L131" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N131" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="O131" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="V131" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="W131" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA131" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB131" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B132" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D132" s="7">
+        <v>98</v>
+      </c>
+      <c r="E132" s="7">
+        <v>99</v>
+      </c>
+      <c r="K132" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M132" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N132" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="O132" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="V132" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="W132" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA132" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B133" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D133" s="7">
+        <v>102</v>
+      </c>
+      <c r="E133" s="7">
+        <v>103</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N133" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="O133" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="V133" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="W133" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA133" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B134" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D134" s="7">
+        <v>106</v>
+      </c>
+      <c r="E134" s="7">
+        <v>108</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="L134" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N134" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="O134" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="V134" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="W134" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA134" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B135" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D135" s="7">
+        <v>111</v>
+      </c>
+      <c r="E135" s="7">
+        <v>113</v>
+      </c>
+      <c r="K135" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="L135" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N135" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="O135" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="V135" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="W135" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA135" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B136" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D136" s="7">
+        <v>115</v>
+      </c>
+      <c r="E136" s="7">
+        <v>117</v>
+      </c>
+      <c r="K136" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="L136" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N136" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="O136" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="V136" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="W136" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA136" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B137" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D137" s="7">
+        <v>122</v>
+      </c>
+      <c r="E137" s="7">
+        <v>124</v>
+      </c>
+      <c r="K137" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="L137" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N137" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="O137" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="V137" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="W137" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA137" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B138" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D138" s="7">
+        <v>126</v>
+      </c>
+      <c r="E138" s="7">
+        <v>128</v>
+      </c>
+      <c r="K138" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="L138" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N138" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="O138" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="V138" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="W138" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA138" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B139" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D139" s="7">
+        <v>131</v>
+      </c>
+      <c r="E139" s="7">
+        <v>132</v>
+      </c>
+      <c r="K139" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="L139" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N139" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="O139" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="V139" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="W139" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA139" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB139" s="22" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B140" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140" s="7">
+        <v>134</v>
+      </c>
+      <c r="E140" s="7">
+        <v>136</v>
+      </c>
+      <c r="K140" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N140" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="O140" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="V140" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="W140" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA140" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B141" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D141" s="7">
+        <v>138</v>
+      </c>
+      <c r="E141" s="7">
+        <v>139</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="L141" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N141" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="O141" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="V141" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="W141" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA141" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B142" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D142" s="7">
+        <v>140</v>
+      </c>
+      <c r="E142" s="7">
+        <v>142</v>
+      </c>
+      <c r="K142" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="L142" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N142" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="O142" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="V142" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="W142" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA142" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B143" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D143" s="7">
+        <v>145</v>
+      </c>
+      <c r="E143" s="7">
+        <v>147</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="L143" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M143" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N143" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="O143" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="V143" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="W143" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA143" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B144" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D144" s="7">
+        <v>150</v>
+      </c>
+      <c r="E144" s="7">
+        <v>152</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="L144" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N144" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="O144" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="V144" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="W144" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA144" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B145" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D145" s="7">
+        <v>154</v>
+      </c>
+      <c r="E145" s="7">
+        <v>156</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="L145" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N145" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="O145" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="V145" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="W145" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA145" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B146" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D146" s="7">
+        <v>157</v>
+      </c>
+      <c r="E146" s="7">
+        <v>159</v>
+      </c>
+      <c r="K146" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N146" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="O146" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="V146" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="W146" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA146" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B147" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D147" s="7">
+        <v>160</v>
+      </c>
+      <c r="E147" s="7">
+        <v>161</v>
+      </c>
+      <c r="K147" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="L147" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N147" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="O147" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="V147" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="W147" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA147" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B148" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D148" s="7">
+        <v>163</v>
+      </c>
+      <c r="E148" s="7">
+        <v>164</v>
+      </c>
+      <c r="K148" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N148" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="O148" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="V148" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="W148" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA148" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B149" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D149" s="7">
+        <v>167</v>
+      </c>
+      <c r="E149" s="7">
+        <v>169</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N149" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="O149" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="V149" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="W149" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA149" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B150" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D150" s="7">
+        <v>172</v>
+      </c>
+      <c r="E150" s="7">
+        <v>174</v>
+      </c>
+      <c r="K150" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N150" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="O150" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="V150" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="W150" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA150" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB150" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="151" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B151" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D151" s="7">
+        <v>182</v>
+      </c>
+      <c r="E151" s="7">
+        <v>183</v>
+      </c>
+      <c r="K151" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="L151" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N151" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="O151" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="V151" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="W151" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA151" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B152" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D152" s="7">
+        <v>185</v>
+      </c>
+      <c r="E152" s="7">
+        <v>186</v>
+      </c>
+      <c r="K152" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="L152" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M152" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N152" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="O152" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="V152" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="W152" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA152" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B153" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D153" s="7">
+        <v>190</v>
+      </c>
+      <c r="E153" s="7">
+        <v>191</v>
+      </c>
+      <c r="K153" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="L153" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M153" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N153" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="O153" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="V153" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="W153" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA153" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B154" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D154" s="7">
+        <v>193</v>
+      </c>
+      <c r="E154" s="7">
+        <v>194</v>
+      </c>
+      <c r="K154" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="L154" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M154" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N154" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="O154" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="P154" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q154" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="R154" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="V154" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="W154" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA154" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B155" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D155" s="7">
+        <v>196</v>
+      </c>
+      <c r="E155" s="7">
+        <v>197</v>
+      </c>
+      <c r="K155" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="L155" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N155" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="O155" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="V155" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="W155" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA155" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B156" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D156" s="7">
+        <v>199</v>
+      </c>
+      <c r="E156" s="7">
+        <v>200</v>
+      </c>
+      <c r="K156" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="L156" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M156" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N156" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="O156" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="V156" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="W156" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA156" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B157" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D157" s="7">
+        <v>202</v>
+      </c>
+      <c r="E157" s="7">
+        <v>203</v>
+      </c>
+      <c r="K157" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="L157" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N157" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="O157" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="V157" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="W157" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA157" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B158" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D158" s="7">
+        <v>204</v>
+      </c>
+      <c r="E158" s="7">
+        <v>206</v>
+      </c>
+      <c r="K158" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="L158" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N158" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="O158" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="V158" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="W158" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA158" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B159" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D159" s="7">
+        <v>209</v>
+      </c>
+      <c r="E159" s="7">
+        <v>210</v>
+      </c>
+      <c r="K159" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="L159" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N159" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="O159" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="V159" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="W159" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA159" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B160" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D160" s="7">
+        <v>212</v>
+      </c>
+      <c r="E160" s="7">
+        <v>214</v>
+      </c>
+      <c r="K160" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="L160" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M160" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N160" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="O160" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="V160" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="W160" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA160" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B161" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D161" s="7">
+        <v>216</v>
+      </c>
+      <c r="E161" s="7">
+        <v>217</v>
+      </c>
+      <c r="K161" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="L161" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N161" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="O161" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="V161" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="W161" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA161" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B162" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D162" s="7">
+        <v>219</v>
+      </c>
+      <c r="E162" s="7">
+        <v>221</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N162" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="O162" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="V162" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="W162" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA162" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B163" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D163" s="7">
+        <v>222</v>
+      </c>
+      <c r="E163" s="7">
+        <v>223</v>
+      </c>
+      <c r="K163" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="L163" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N163" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="O163" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="V163" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="W163" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA163" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B164" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D164" s="7">
+        <v>225</v>
+      </c>
+      <c r="E164" s="7">
+        <v>226</v>
+      </c>
+      <c r="K164" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="L164" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N164" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="O164" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="P164" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q164" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="V164" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="W164" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA164" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B165" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="L165" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V165" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W165" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA165" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B166" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L166" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V166" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W166" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA166" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B167" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L167" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V167" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W167" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA167" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B168" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L168" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V168" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W168" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA168" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B169" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L169" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V169" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W169" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA169" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B170" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L170" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V170" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W170" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA170" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B171" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L171" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V171" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W171" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA171" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B172" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L172" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V172" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W172" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA172" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B173" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L173" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V173" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W173" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA173" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="L174" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V174" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="W174" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA174" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V175" s="18"/>
+    </row>
+    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V176" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2134" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548E2085-3FBB-4CF3-B569-72B6E9A83CE2}"/>
+  <xr:revisionPtr revIDLastSave="2588" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF7781D-8E8F-427B-BEA9-3D0BC1E976F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="950">
   <si>
     <t>ID</t>
   </si>
@@ -2231,9 +2231,6 @@
     <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Dorpen Eede en Heille.</t>
   </si>
   <si>
-    <t>Zuid-nederland.</t>
-  </si>
-  <si>
     <t>51.5215400</t>
   </si>
   <si>
@@ -2349,15 +2346,562 @@
   </si>
   <si>
     <t>Land van Cadzand</t>
+  </si>
+  <si>
+    <t>Zuid-Nederland.</t>
+  </si>
+  <si>
+    <t>Zuid-Nederland</t>
+  </si>
+  <si>
+    <t>Helchteren</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Helchteren.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Hasselt.</t>
+  </si>
+  <si>
+    <t>St. Truiden</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad St. Truiden.</t>
+  </si>
+  <si>
+    <t>Zuid-Brabant.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Zuurbeemden.</t>
+  </si>
+  <si>
+    <t>Diest</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Diest.</t>
+  </si>
+  <si>
+    <t>Tienen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Tienen.</t>
+  </si>
+  <si>
+    <t>Leuven</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Leuven.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Brussel.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Noord-Brussel, Schaarbeek, Enz.</t>
+  </si>
+  <si>
+    <t>Antwerpen.</t>
+  </si>
+  <si>
+    <t>Tielen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Tielen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mol  </t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Stadje Mol.</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Antwerpen.</t>
+  </si>
+  <si>
+    <t>Lier</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Lier.</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Mechelen.</t>
+  </si>
+  <si>
+    <t>St. Amands</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp St. Amands.</t>
+  </si>
+  <si>
+    <t>Oost-Vlaanderen.</t>
+  </si>
+  <si>
+    <t>52.0204935</t>
+  </si>
+  <si>
+    <t>4.5380014</t>
+  </si>
+  <si>
+    <t>50.9808847</t>
+  </si>
+  <si>
+    <t>5.0556836</t>
+  </si>
+  <si>
+    <t>56.2161436</t>
+  </si>
+  <si>
+    <t>51.2160318</t>
+  </si>
+  <si>
+    <t>4.4105746</t>
+  </si>
+  <si>
+    <t>51.0253405</t>
+  </si>
+  <si>
+    <t>4.4802628</t>
+  </si>
+  <si>
+    <t>51.0588024</t>
+  </si>
+  <si>
+    <t>5.3818356</t>
+  </si>
+  <si>
+    <t>50.9325564</t>
+  </si>
+  <si>
+    <t>5.3402678</t>
+  </si>
+  <si>
+    <t>Hasselt</t>
+  </si>
+  <si>
+    <t>50.8743242</t>
+  </si>
+  <si>
+    <t>4.9731978</t>
+  </si>
+  <si>
+    <t>Zuurbeemde</t>
+  </si>
+  <si>
+    <t>50.8102979</t>
+  </si>
+  <si>
+    <t>4.9355730</t>
+  </si>
+  <si>
+    <t>50.8815123</t>
+  </si>
+  <si>
+    <t>4.7041114</t>
+  </si>
+  <si>
+    <t>50.8188310</t>
+  </si>
+  <si>
+    <t>5.1817431</t>
+  </si>
+  <si>
+    <t>50.8484731</t>
+  </si>
+  <si>
+    <t>4.3522156</t>
+  </si>
+  <si>
+    <t>50.9103805</t>
+  </si>
+  <si>
+    <t>4.4000212</t>
+  </si>
+  <si>
+    <t>50.8506502</t>
+  </si>
+  <si>
+    <t>4.4150426</t>
+  </si>
+  <si>
+    <t>51.2464032</t>
+  </si>
+  <si>
+    <t>4.8960559</t>
+  </si>
+  <si>
+    <t>51.1338930</t>
+  </si>
+  <si>
+    <t>4.5667329</t>
+  </si>
+  <si>
+    <t>10.534597</t>
+  </si>
+  <si>
+    <t>51.0549813</t>
+  </si>
+  <si>
+    <t>4.2052285</t>
+  </si>
+  <si>
+    <t>Brüssel</t>
+  </si>
+  <si>
+    <t>Noord-Brüssel, Schaarbeek</t>
+  </si>
+  <si>
+    <t>St. Nicolaas</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad St. Nicolaas.</t>
+  </si>
+  <si>
+    <t>Eeklo</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Eeklo.</t>
+  </si>
+  <si>
+    <t>Maldegheim</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Maldegheim.</t>
+  </si>
+  <si>
+    <t>Kleit</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Gehucht Kleit.</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Gent.</t>
+  </si>
+  <si>
+    <t>Wijk der Nieuwe-Brug te Gent</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Werklieden in de Wijk der Nieuwe-Brug te Gent.</t>
+  </si>
+  <si>
+    <t>Wetteren</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Vlek Wetteren.</t>
+  </si>
+  <si>
+    <t>Ninove</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Ninove.</t>
+  </si>
+  <si>
+    <t>Eichem</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van het Dorp Eichem.</t>
+  </si>
+  <si>
+    <t>Geeraardsbergen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Geeraardsbergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Oudenaarde.</t>
+  </si>
+  <si>
+    <t>Deinze</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Deinze.</t>
+  </si>
+  <si>
+    <t>West-Flaandern.</t>
+  </si>
+  <si>
+    <t>Brügge</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Brugge.</t>
+  </si>
+  <si>
+    <t>Oostende</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Oostende.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Roesselaar.</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Kortrijk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Iperen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Poperingen.</t>
+  </si>
+  <si>
+    <t>Frankrijk.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad St. Winok's Bergen.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van de Stad Duinkerke.</t>
+  </si>
+  <si>
+    <t>Het limburgische roodwaalsch.</t>
+  </si>
+  <si>
+    <t>Kempen</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in het Rodwalsch van de zuidnederlandsch-limburgische Kempen.</t>
+  </si>
+  <si>
+    <t>Het vlaamsche roodwaalsch.</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in het Roodwaalsch van Zeele.</t>
+  </si>
+  <si>
+    <t>Kein Titel.</t>
+  </si>
+  <si>
+    <t>"Enz" ist das niederländische "usw", habe aber nicht herausgefunden, was damit hier konkret gemeint ist</t>
+  </si>
+  <si>
+    <t>Aanhangsel.</t>
+  </si>
+  <si>
+    <t>51.2086082</t>
+  </si>
+  <si>
+    <t>3.2232917</t>
+  </si>
+  <si>
+    <t>51.3657347</t>
+  </si>
+  <si>
+    <t>6.4186172</t>
+  </si>
+  <si>
+    <t>51.1656558</t>
+  </si>
+  <si>
+    <t>4.1386599</t>
+  </si>
+  <si>
+    <t>51.1866014</t>
+  </si>
+  <si>
+    <t>3.5616953</t>
+  </si>
+  <si>
+    <t>51.2092003</t>
+  </si>
+  <si>
+    <t>3.4481684</t>
+  </si>
+  <si>
+    <t>51.1828974</t>
+  </si>
+  <si>
+    <t>3.4451610</t>
+  </si>
+  <si>
+    <t>51.0510482</t>
+  </si>
+  <si>
+    <t>3.7317409</t>
+  </si>
+  <si>
+    <t>51.0034232</t>
+  </si>
+  <si>
+    <t>3.8795837</t>
+  </si>
+  <si>
+    <t>50.8336655</t>
+  </si>
+  <si>
+    <t>4.0185689</t>
+  </si>
+  <si>
+    <t>50.8280053</t>
+  </si>
+  <si>
+    <t>3.9864126</t>
+  </si>
+  <si>
+    <t>50.7721665</t>
+  </si>
+  <si>
+    <t>3.8782334</t>
+  </si>
+  <si>
+    <t>50.8468053</t>
+  </si>
+  <si>
+    <t>3.6076298</t>
+  </si>
+  <si>
+    <t>50.9766686</t>
+  </si>
+  <si>
+    <t>3.5262317</t>
+  </si>
+  <si>
+    <t>Rotselaar</t>
+  </si>
+  <si>
+    <t>50.9538088</t>
+  </si>
+  <si>
+    <t>4.7156533</t>
+  </si>
+  <si>
+    <t>50.8270338</t>
+  </si>
+  <si>
+    <t>3.2535800</t>
+  </si>
+  <si>
+    <t>50.8492663</t>
+  </si>
+  <si>
+    <t>2.8777850</t>
+  </si>
+  <si>
+    <t>Yper</t>
+  </si>
+  <si>
+    <t>50.8558169</t>
+  </si>
+  <si>
+    <t>2.7261683</t>
+  </si>
+  <si>
+    <t>Poperinge</t>
+  </si>
+  <si>
+    <t>51.0729220</t>
+  </si>
+  <si>
+    <t>2.6631728</t>
+  </si>
+  <si>
+    <t>Veurne</t>
+  </si>
+  <si>
+    <t>De Gelijkenis van den verlorenen Zoon in den Tongval van Veurne-Ambacht.</t>
+  </si>
+  <si>
+    <t>Es gibt keine ort ambacht, aber "Ambacht2 heitßt "Amt" - veillicht nur Ergänzung?</t>
+  </si>
+  <si>
+    <t>Proeve van den Tongval van het Dorp Kaasteren.</t>
+  </si>
+  <si>
+    <t>Caëstre</t>
+  </si>
+  <si>
+    <t>50.7577792</t>
+  </si>
+  <si>
+    <t>2.6015972</t>
+  </si>
+  <si>
+    <t>50.9690423</t>
+  </si>
+  <si>
+    <t>2.4310218</t>
+  </si>
+  <si>
+    <t>Bergues</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>51.0346753</t>
+  </si>
+  <si>
+    <t>2.3757111</t>
+  </si>
+  <si>
+    <t>51.2247806</t>
+  </si>
+  <si>
+    <t>2.9092597</t>
+  </si>
+  <si>
+    <t>Limburg</t>
+  </si>
+  <si>
+    <t>Flandern</t>
+  </si>
+  <si>
+    <t>51.0151668</t>
+  </si>
+  <si>
+    <t>4.2649452</t>
+  </si>
+  <si>
+    <t>Oudenaarden</t>
+  </si>
+  <si>
+    <t>51.0579062</t>
+  </si>
+  <si>
+    <t>5.4856694</t>
+  </si>
+  <si>
+    <t>Zele</t>
+  </si>
+  <si>
+    <t>51.0686756</t>
+  </si>
+  <si>
+    <t>4.0388192</t>
+  </si>
+  <si>
+    <t>51.0438580</t>
+  </si>
+  <si>
+    <t>3.7635820</t>
+  </si>
+  <si>
+    <t>koord des Stadbezirks "Gentbrugge" in Gent, da es keinen Bezirk "Nieuwe-Brug" (mehr) zu geben scheint/ viellicht hieß Gentbrugge früher Nieuwe-Brug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2453,32 +2997,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2797,11 +3346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB186" sqref="AB186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8789,7 +9338,7 @@
         <v>183</v>
       </c>
       <c r="K151" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L151" s="18" t="s">
         <v>31</v>
@@ -8798,10 +9347,10 @@
         <v>37</v>
       </c>
       <c r="N151" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="O151" s="21" t="s">
         <v>734</v>
-      </c>
-      <c r="O151" s="21" t="s">
-        <v>735</v>
       </c>
       <c r="V151" s="18" t="s">
         <v>709</v>
@@ -8827,7 +9376,7 @@
         <v>186</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L152" s="18" t="s">
         <v>31</v>
@@ -8836,10 +9385,10 @@
         <v>48</v>
       </c>
       <c r="N152" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="O152" s="21" t="s">
         <v>737</v>
-      </c>
-      <c r="O152" s="21" t="s">
-        <v>738</v>
       </c>
       <c r="V152" s="18" t="s">
         <v>710</v>
@@ -8874,10 +9423,10 @@
         <v>48</v>
       </c>
       <c r="N153" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="O153" s="21" t="s">
         <v>740</v>
-      </c>
-      <c r="O153" s="21" t="s">
-        <v>741</v>
       </c>
       <c r="V153" s="18" t="s">
         <v>712</v>
@@ -8903,28 +9452,28 @@
         <v>194</v>
       </c>
       <c r="K154" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="L154" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M154" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N154" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="O154" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="P154" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="L154" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M154" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N154" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="O154" s="21" t="s">
-        <v>760</v>
-      </c>
-      <c r="P154" s="21" t="s">
+      <c r="Q154" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="Q154" s="21" t="s">
+      <c r="R154" s="21" t="s">
         <v>763</v>
-      </c>
-      <c r="R154" s="21" t="s">
-        <v>764</v>
       </c>
       <c r="V154" s="18" t="s">
         <v>713</v>
@@ -8959,10 +9508,10 @@
         <v>37</v>
       </c>
       <c r="N155" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="O155" s="21" t="s">
         <v>744</v>
-      </c>
-      <c r="O155" s="21" t="s">
-        <v>745</v>
       </c>
       <c r="V155" s="18" t="s">
         <v>715</v>
@@ -8997,10 +9546,10 @@
         <v>48</v>
       </c>
       <c r="N156" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="O156" s="21" t="s">
         <v>742</v>
-      </c>
-      <c r="O156" s="21" t="s">
-        <v>743</v>
       </c>
       <c r="V156" s="18" t="s">
         <v>717</v>
@@ -9035,10 +9584,10 @@
         <v>48</v>
       </c>
       <c r="N157" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="O157" s="21" t="s">
         <v>732</v>
-      </c>
-      <c r="O157" s="21" t="s">
-        <v>733</v>
       </c>
       <c r="V157" s="18" t="s">
         <v>719</v>
@@ -9073,10 +9622,10 @@
         <v>37</v>
       </c>
       <c r="N158" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="O158" s="21" t="s">
         <v>746</v>
-      </c>
-      <c r="O158" s="21" t="s">
-        <v>747</v>
       </c>
       <c r="V158" s="18" t="s">
         <v>721</v>
@@ -9111,10 +9660,10 @@
         <v>37</v>
       </c>
       <c r="N159" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="O159" s="21" t="s">
         <v>748</v>
-      </c>
-      <c r="O159" s="21" t="s">
-        <v>749</v>
       </c>
       <c r="V159" s="18" t="s">
         <v>723</v>
@@ -9140,7 +9689,7 @@
         <v>214</v>
       </c>
       <c r="K160" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L160" s="18" t="s">
         <v>31</v>
@@ -9149,10 +9698,10 @@
         <v>48</v>
       </c>
       <c r="N160" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="O160" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="O160" s="21" t="s">
-        <v>766</v>
       </c>
       <c r="V160" s="18" t="s">
         <v>724</v>
@@ -9164,7 +9713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B161" s="18" t="s">
         <v>446</v>
       </c>
@@ -9178,7 +9727,7 @@
         <v>217</v>
       </c>
       <c r="K161" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L161" s="18" t="s">
         <v>31</v>
@@ -9187,10 +9736,10 @@
         <v>48</v>
       </c>
       <c r="N161" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="O161" s="21" t="s">
         <v>768</v>
-      </c>
-      <c r="O161" s="21" t="s">
-        <v>769</v>
       </c>
       <c r="V161" s="18" t="s">
         <v>725</v>
@@ -9202,7 +9751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
         <v>446</v>
       </c>
@@ -9225,10 +9774,10 @@
         <v>37</v>
       </c>
       <c r="N162" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="O162" s="21" t="s">
         <v>751</v>
-      </c>
-      <c r="O162" s="21" t="s">
-        <v>752</v>
       </c>
       <c r="V162" s="18" t="s">
         <v>727</v>
@@ -9240,7 +9789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B163" s="18" t="s">
         <v>446</v>
       </c>
@@ -9254,7 +9803,7 @@
         <v>223</v>
       </c>
       <c r="K163" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L163" s="18" t="s">
         <v>31</v>
@@ -9263,10 +9812,10 @@
         <v>37</v>
       </c>
       <c r="N163" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="O163" s="21" t="s">
         <v>753</v>
-      </c>
-      <c r="O163" s="21" t="s">
-        <v>754</v>
       </c>
       <c r="V163" s="18" t="s">
         <v>728</v>
@@ -9278,7 +9827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B164" s="18" t="s">
         <v>446</v>
       </c>
@@ -9301,16 +9850,16 @@
         <v>37</v>
       </c>
       <c r="N164" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="O164" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="O164" s="21" t="s">
+      <c r="P164" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="P164" s="21" t="s">
+      <c r="Q164" s="21" t="s">
         <v>757</v>
-      </c>
-      <c r="Q164" s="21" t="s">
-        <v>758</v>
       </c>
       <c r="V164" s="18" t="s">
         <v>730</v>
@@ -9322,15 +9871,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B165" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C165" s="18" t="s">
-        <v>731</v>
+      <c r="C165" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="D165" s="7">
+        <v>230</v>
+      </c>
+      <c r="E165" s="7">
+        <v>233</v>
+      </c>
+      <c r="K165" s="23" t="s">
+        <v>771</v>
       </c>
       <c r="L165" s="18" t="s">
         <v>31</v>
+      </c>
+      <c r="M165" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N165" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="O165" s="25" t="s">
+        <v>802</v>
       </c>
       <c r="V165" s="18" t="s">
         <v>524</v>
@@ -9342,15 +9909,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B166" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C166" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D166" s="7">
+        <v>235</v>
+      </c>
+      <c r="E166" s="7">
+        <v>237</v>
+      </c>
+      <c r="K166" s="23" t="s">
+        <v>772</v>
+      </c>
       <c r="L166" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V166" s="18" t="s">
-        <v>524</v>
+      <c r="M166" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N166" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="O166" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="V166" s="23" t="s">
+        <v>773</v>
       </c>
       <c r="W166" s="18" t="s">
         <v>38</v>
@@ -9359,15 +9947,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B167" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C167" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" s="7">
+        <v>238</v>
+      </c>
+      <c r="E167" s="7">
+        <v>240</v>
+      </c>
+      <c r="K167" s="27" t="s">
+        <v>814</v>
+      </c>
       <c r="L167" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V167" s="18" t="s">
-        <v>524</v>
+      <c r="M167" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N167" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="O167" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="V167" s="23" t="s">
+        <v>774</v>
       </c>
       <c r="W167" s="18" t="s">
         <v>38</v>
@@ -9376,15 +9985,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B168" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C168" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D168" s="7">
+        <v>242</v>
+      </c>
+      <c r="E168" s="7">
+        <v>243</v>
+      </c>
+      <c r="K168" s="23" t="s">
+        <v>775</v>
+      </c>
       <c r="L168" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V168" s="18" t="s">
-        <v>524</v>
+      <c r="M168" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N168" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="O168" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="V168" s="23" t="s">
+        <v>776</v>
       </c>
       <c r="W168" s="18" t="s">
         <v>38</v>
@@ -9393,15 +10023,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B169" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C169" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D169" s="7">
+        <v>249</v>
+      </c>
+      <c r="E169" s="7">
+        <v>251</v>
+      </c>
+      <c r="K169" s="23" t="s">
+        <v>817</v>
+      </c>
       <c r="L169" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V169" s="18" t="s">
-        <v>524</v>
+      <c r="M169" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N169" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="O169" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="V169" s="23" t="s">
+        <v>778</v>
       </c>
       <c r="W169" s="18" t="s">
         <v>38</v>
@@ -9410,15 +10061,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B170" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C170" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D170" s="7">
+        <v>253</v>
+      </c>
+      <c r="E170" s="7">
+        <v>255</v>
+      </c>
+      <c r="K170" s="23" t="s">
+        <v>779</v>
+      </c>
       <c r="L170" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V170" s="18" t="s">
-        <v>524</v>
+      <c r="M170" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N170" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="O170" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="P170" s="24"/>
+      <c r="V170" s="23" t="s">
+        <v>780</v>
       </c>
       <c r="W170" s="18" t="s">
         <v>38</v>
@@ -9427,15 +10100,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B171" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C171" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D171" s="7">
+        <v>256</v>
+      </c>
+      <c r="E171" s="7">
+        <v>258</v>
+      </c>
+      <c r="K171" s="23" t="s">
+        <v>781</v>
+      </c>
       <c r="L171" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V171" s="18" t="s">
-        <v>524</v>
+      <c r="M171" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N171" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="O171" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="P171" s="24"/>
+      <c r="V171" s="23" t="s">
+        <v>782</v>
       </c>
       <c r="W171" s="18" t="s">
         <v>38</v>
@@ -9444,15 +10139,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B172" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C172" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D172" s="7">
+        <v>261</v>
+      </c>
+      <c r="E172" s="7">
+        <v>263</v>
+      </c>
+      <c r="K172" s="23" t="s">
+        <v>783</v>
+      </c>
       <c r="L172" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V172" s="18" t="s">
-        <v>524</v>
+      <c r="M172" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N172" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="O172" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="P172" s="24"/>
+      <c r="V172" s="23" t="s">
+        <v>784</v>
       </c>
       <c r="W172" s="18" t="s">
         <v>38</v>
@@ -9461,15 +10178,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B173" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C173" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D173" s="7">
+        <v>268</v>
+      </c>
+      <c r="E173" s="7">
+        <v>270</v>
+      </c>
+      <c r="K173" s="23" t="s">
+        <v>837</v>
+      </c>
       <c r="L173" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V173" s="18" t="s">
-        <v>524</v>
+      <c r="M173" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N173" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="O173" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="P173" s="24"/>
+      <c r="V173" s="23" t="s">
+        <v>785</v>
       </c>
       <c r="W173" s="18" t="s">
         <v>38</v>
@@ -9478,12 +10217,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B174" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D174" s="7">
+        <v>273</v>
+      </c>
+      <c r="E174" s="7">
+        <v>274</v>
+      </c>
+      <c r="K174" s="23" t="s">
+        <v>838</v>
+      </c>
       <c r="L174" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V174" s="18" t="s">
-        <v>524</v>
+      <c r="M174" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N174" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="O174" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="P174" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q174" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="V174" s="23" t="s">
+        <v>786</v>
       </c>
       <c r="W174" s="18" t="s">
         <v>38</v>
@@ -9491,15 +10260,1417 @@
       <c r="AA174" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="V175" s="18"/>
-    </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="V176" s="18"/>
+      <c r="AB174" s="26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="175" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B175" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D175" s="7">
+        <v>281</v>
+      </c>
+      <c r="E175" s="7">
+        <v>283</v>
+      </c>
+      <c r="K175" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="L175" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M175" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N175" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="O175" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="P175" s="24"/>
+      <c r="V175" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="W175" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA175" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B176" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D176" s="7">
+        <v>284</v>
+      </c>
+      <c r="E176" s="7">
+        <v>285</v>
+      </c>
+      <c r="K176" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="L176" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M176" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N176" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="O176" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="P176" s="24"/>
+      <c r="V176" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="W176" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA176" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B177" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D177" s="7">
+        <v>292</v>
+      </c>
+      <c r="E177" s="7">
+        <v>294</v>
+      </c>
+      <c r="K177" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="L177" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M177" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N177" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="O177" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="P177" s="24"/>
+      <c r="V177" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="W177" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA177" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B178" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D178" s="7">
+        <v>297</v>
+      </c>
+      <c r="E178" s="7">
+        <v>298</v>
+      </c>
+      <c r="K178" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="L178" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N178" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="O178" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="P178" s="24"/>
+      <c r="V178" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="W178" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA178" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B179" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D179" s="7">
+        <v>299</v>
+      </c>
+      <c r="E179" s="7">
+        <v>300</v>
+      </c>
+      <c r="K179" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="L179" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M179" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N179" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="O179" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="P179" s="24"/>
+      <c r="V179" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="W179" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA179" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B180" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D180" s="7">
+        <v>302</v>
+      </c>
+      <c r="E180" s="7">
+        <v>304</v>
+      </c>
+      <c r="K180" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="L180" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M180" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N180" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="O180" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="P180" s="24"/>
+      <c r="V180" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="W180" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA180" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B181" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D181" s="7">
+        <v>308</v>
+      </c>
+      <c r="E181" s="7">
+        <v>310</v>
+      </c>
+      <c r="K181" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="L181" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M181" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N181" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="O181" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="P181" s="24"/>
+      <c r="V181" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="W181" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA181" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B182" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D182" s="7">
+        <v>311</v>
+      </c>
+      <c r="E182" s="7">
+        <v>313</v>
+      </c>
+      <c r="K182" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="L182" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M182" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N182" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="O182" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="V182" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="W182" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA182" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B183" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D183" s="7">
+        <v>315</v>
+      </c>
+      <c r="E183" s="7">
+        <v>316</v>
+      </c>
+      <c r="K183" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="L183" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M183" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N183" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="O183" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="V183" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="W183" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA183" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B184" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D184" s="7">
+        <v>319</v>
+      </c>
+      <c r="E184" s="7">
+        <v>319</v>
+      </c>
+      <c r="K184" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="L184" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M184" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N184" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="O184" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="V184" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="W184" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA184" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B185" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D185" s="7">
+        <v>325</v>
+      </c>
+      <c r="E185" s="7">
+        <v>326</v>
+      </c>
+      <c r="K185" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="L185" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M185" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N185" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="O185" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="V185" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="W185" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA185" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B186" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D186" s="7">
+        <v>328</v>
+      </c>
+      <c r="E186" s="7">
+        <v>329</v>
+      </c>
+      <c r="K186" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="L186" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M186" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N186" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="O186" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="V186" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="W186" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA186" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB186" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="187" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B187" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D187" s="7">
+        <v>331</v>
+      </c>
+      <c r="E187" s="7">
+        <v>332</v>
+      </c>
+      <c r="K187" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="L187" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M187" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N187" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="O187" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="V187" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="W187" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA187" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B188" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D188" s="7">
+        <v>334</v>
+      </c>
+      <c r="E188" s="7">
+        <v>335</v>
+      </c>
+      <c r="K188" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="L188" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N188" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="O188" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="V188" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="W188" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA188" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B189" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D189" s="7">
+        <v>338</v>
+      </c>
+      <c r="E189" s="7">
+        <v>339</v>
+      </c>
+      <c r="K189" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="L189" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M189" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N189" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="O189" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="V189" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="W189" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA189" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B190" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D190" s="7">
+        <v>341</v>
+      </c>
+      <c r="E190" s="7">
+        <v>342</v>
+      </c>
+      <c r="K190" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="L190" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M190" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N190" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="O190" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="V190" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="W190" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA190" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B191" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D191" s="7">
+        <v>345</v>
+      </c>
+      <c r="E191" s="7">
+        <v>346</v>
+      </c>
+      <c r="K191" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="L191" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M191" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N191" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="O191" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="V191" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="W191" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA191" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B192" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="D192" s="7">
+        <v>349</v>
+      </c>
+      <c r="E192" s="7">
+        <v>350</v>
+      </c>
+      <c r="K192" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="L192" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M192" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N192" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="O192" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="V192" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="W192" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA192" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B193" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D193" s="7">
+        <v>356</v>
+      </c>
+      <c r="E193" s="7">
+        <v>358</v>
+      </c>
+      <c r="K193" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="L193" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M193" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N193" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="O193" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="V193" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="W193" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA193" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B194" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D194" s="7">
+        <v>362</v>
+      </c>
+      <c r="E194" s="7">
+        <v>364</v>
+      </c>
+      <c r="K194" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="L194" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N194" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="O194" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="V194" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="W194" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA194" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B195" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D195" s="7">
+        <v>369</v>
+      </c>
+      <c r="E195" s="7">
+        <v>371</v>
+      </c>
+      <c r="K195" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="L195" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M195" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N195" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="O195" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="V195" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="W195" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA195" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B196" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D196" s="7">
+        <v>374</v>
+      </c>
+      <c r="E196" s="7">
+        <v>375</v>
+      </c>
+      <c r="K196" s="23" t="s">
+        <v>868</v>
+      </c>
+      <c r="L196" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M196" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N196" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="O196" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="V196" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="W196" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA196" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B197" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D197" s="7">
+        <v>378</v>
+      </c>
+      <c r="E197" s="7">
+        <v>380</v>
+      </c>
+      <c r="K197" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="L197" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M197" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N197" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="O197" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="V197" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="W197" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA197" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B198" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D198" s="7">
+        <v>382</v>
+      </c>
+      <c r="E198" s="7">
+        <v>384</v>
+      </c>
+      <c r="K198" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="L198" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M198" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N198" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="O198" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="V198" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="W198" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA198" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B199" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D199" s="7">
+        <v>386</v>
+      </c>
+      <c r="E199" s="7">
+        <v>387</v>
+      </c>
+      <c r="K199" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="L199" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M199" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N199" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="O199" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="V199" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="W199" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA199" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB199" s="23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B200" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D200" s="7">
+        <v>393</v>
+      </c>
+      <c r="E200" s="7">
+        <v>394</v>
+      </c>
+      <c r="K200" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="L200" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N200" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="O200" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="V200" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="W200" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA200" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B201" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D201" s="7">
+        <v>395</v>
+      </c>
+      <c r="E201" s="7">
+        <v>397</v>
+      </c>
+      <c r="K201" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="L201" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M201" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N201" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="O201" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="V201" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="W201" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA201" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B202" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="D202" s="7">
+        <v>401</v>
+      </c>
+      <c r="E202" s="7">
+        <v>402</v>
+      </c>
+      <c r="K202" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="L202" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M202" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N202" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="O202" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="V202" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="W202" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA202" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B203" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D203" s="7">
+        <v>411</v>
+      </c>
+      <c r="E203" s="7">
+        <v>420</v>
+      </c>
+      <c r="K203" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="L203" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M203" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N203" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="O203" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="V203" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="W203" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA203" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B204" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D204" s="7">
+        <v>417</v>
+      </c>
+      <c r="E204" s="7">
+        <v>419</v>
+      </c>
+      <c r="K204" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="L204" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M204" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N204" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="O204" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="V204" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="W204" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA204" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B205" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D205" s="7">
+        <v>420</v>
+      </c>
+      <c r="E205" s="7">
+        <v>429</v>
+      </c>
+      <c r="K205" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="L205" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M205" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N205" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="O205" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="V205" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="W205" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA205" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B206" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D206" s="7">
+        <v>421</v>
+      </c>
+      <c r="E206" s="7">
+        <v>423</v>
+      </c>
+      <c r="K206" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="L206" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M206" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N206" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="O206" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="V206" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="W206" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA206" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B207" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D207" s="7">
+        <v>427</v>
+      </c>
+      <c r="E207" s="7">
+        <v>428</v>
+      </c>
+      <c r="K207" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="L207" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M207" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N207" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="O207" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="V207" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="W207" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA207" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B208" s="18"/>
+      <c r="V208" s="18"/>
+      <c r="W208" s="18"/>
+      <c r="AA208" s="19"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="18"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="18"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="18"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="18"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="18"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="18"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="18"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="18"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="18"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="18"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="18"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="18"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="18"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="18"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="18"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="18"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="18"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="18"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="18"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="18"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="18"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="18"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="18"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="18"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="18"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="18"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="18"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="18"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="18"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="18"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="18"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="18"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="18"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="18"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="18"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="18"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="18"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="18"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="18"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="18"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="18"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="18"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="18"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2588" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF7781D-8E8F-427B-BEA9-3D0BC1E976F4}"/>
+  <xr:revisionPtr revIDLastSave="2596" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382A5CBC-0808-4D3C-AEB7-5441F7386527}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hinweise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="954">
   <si>
     <t>ID</t>
   </si>
@@ -2886,6 +2887,18 @@
   </si>
   <si>
     <t>koord des Stadbezirks "Gentbrugge" in Gent, da es keinen Bezirk "Nieuwe-Brug" (mehr) zu geben scheint/ viellicht hieß Gentbrugge früher Nieuwe-Brug</t>
+  </si>
+  <si>
+    <t>es gibt zu jeder H2 oder H3 auch noch Infos, von wem der Text eingesendet wurde. Die sind noch nicht aufgenommen.</t>
+  </si>
+  <si>
+    <t>nach den Texten folgen oft auch nach den Anmerkungen (Aanteekeningen) noch weitere Infos im Fließtext, die jetzt nicht aufgenommen wurden</t>
+  </si>
+  <si>
+    <t>die aanteekeningen habe ich nur bis zu einem Punkt mit aufgenommen, müsste noch fertig gemacht werden.</t>
+  </si>
+  <si>
+    <t>Übersetzungen fehlen komplett</t>
   </si>
 </sst>
 </file>
@@ -2997,7 +3010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3027,7 +3040,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3349,8 +3361,8 @@
   <dimension ref="A1:AB252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB186" sqref="AB186"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9960,7 +9972,7 @@
       <c r="E167" s="7">
         <v>240</v>
       </c>
-      <c r="K167" s="27" t="s">
+      <c r="K167" s="23" t="s">
         <v>814</v>
       </c>
       <c r="L167" s="18" t="s">
@@ -11673,4 +11685,42 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E16E27-020B-4077-B2F1-14F61C0234CC}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -2984,7 +2984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3007,15 +3007,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3338,7 +3331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,19 +3468,19 @@
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -3513,19 +3506,19 @@
       <c r="M3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="X3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -3563,7 +3556,7 @@
       <c r="W4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB4" s="8" t="s">
@@ -3607,7 +3600,7 @@
       <c r="W5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB5" s="8" t="s">
@@ -3651,7 +3644,7 @@
       <c r="W6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="27" t="s">
+      <c r="X6" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB6" s="8" t="s">
@@ -3695,7 +3688,7 @@
       <c r="W7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB7" s="8" t="s">
@@ -3739,7 +3732,7 @@
       <c r="W8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB8" s="8" t="s">
@@ -3783,7 +3776,7 @@
       <c r="W9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="X9" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB9" s="8" t="s">
@@ -3827,7 +3820,7 @@
       <c r="W10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="27" t="s">
+      <c r="X10" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB10" s="8" t="s">
@@ -3871,7 +3864,7 @@
       <c r="W11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="27" t="s">
+      <c r="X11" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB11" s="8" t="s">
@@ -3915,7 +3908,7 @@
       <c r="W12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="27" t="s">
+      <c r="X12" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB12" s="8" t="s">
@@ -3959,7 +3952,7 @@
       <c r="W13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="27" t="s">
+      <c r="X13" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB13" s="8" t="s">
@@ -4003,7 +3996,7 @@
       <c r="W14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="27" t="s">
+      <c r="X14" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB14" s="8" t="s">
@@ -4047,7 +4040,7 @@
       <c r="W15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="27" t="s">
+      <c r="X15" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB15" s="8" t="s">
@@ -4091,7 +4084,7 @@
       <c r="W16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="27" t="s">
+      <c r="X16" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB16" s="8" t="s">
@@ -4135,7 +4128,7 @@
       <c r="W17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB17" s="8" t="s">
@@ -4179,7 +4172,7 @@
       <c r="W18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="27" t="s">
+      <c r="X18" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB18" s="8" t="s">
@@ -4223,7 +4216,7 @@
       <c r="W19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="X19" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB19" s="8" t="s">
@@ -4267,7 +4260,7 @@
       <c r="W20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="27" t="s">
+      <c r="X20" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB20" s="8" t="s">
@@ -4311,7 +4304,7 @@
       <c r="W21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="X21" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB21" s="8" t="s">
@@ -4355,7 +4348,7 @@
       <c r="W22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="27" t="s">
+      <c r="X22" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB22" s="8" t="s">
@@ -4399,7 +4392,7 @@
       <c r="W23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="X23" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB23" s="8" t="s">
@@ -4443,7 +4436,7 @@
       <c r="W24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="27" t="s">
+      <c r="X24" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB24" s="8" t="s">
@@ -4487,7 +4480,7 @@
       <c r="W25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X25" s="27" t="s">
+      <c r="X25" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB25" s="8" t="s">
@@ -4528,7 +4521,7 @@
       <c r="W26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X26" s="27" t="s">
+      <c r="X26" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB26" s="8" t="s">
@@ -4569,7 +4562,7 @@
       <c r="W27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="X27" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB27" s="8" t="s">
@@ -4613,7 +4606,7 @@
       <c r="W28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X28" s="27" t="s">
+      <c r="X28" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB28" s="8" t="s">
@@ -4657,7 +4650,7 @@
       <c r="W29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X29" s="27" t="s">
+      <c r="X29" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB29" s="8" t="s">
@@ -4701,7 +4694,7 @@
       <c r="W30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="27" t="s">
+      <c r="X30" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB30" s="8" t="s">
@@ -4745,7 +4738,7 @@
       <c r="W31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="X31" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB31" s="8" t="s">
@@ -4789,7 +4782,7 @@
       <c r="W32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X32" s="27" t="s">
+      <c r="X32" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB32" s="8" t="s">
@@ -4812,7 +4805,7 @@
       <c r="E33" s="7">
         <v>145</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -4833,7 +4826,7 @@
       <c r="W33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X33" s="27" t="s">
+      <c r="X33" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB33" s="8" t="s">
@@ -4856,10 +4849,10 @@
       <c r="E34" s="7">
         <v>155</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="9" t="s">
@@ -4877,7 +4870,7 @@
       <c r="W34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X34" s="27" t="s">
+      <c r="X34" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB34" s="8" t="s">
@@ -4897,7 +4890,7 @@
       <c r="E35" s="7">
         <v>149</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="9" t="s">
         <v>165</v>
       </c>
       <c r="L35" s="7" t="s">
@@ -4918,7 +4911,7 @@
       <c r="W35" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="X35" s="27" t="s">
+      <c r="X35" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB35" s="8" t="s">
@@ -4941,7 +4934,7 @@
       <c r="E36" s="7">
         <v>152</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="9" t="s">
         <v>166</v>
       </c>
       <c r="L36" s="7" t="s">
@@ -4962,7 +4955,7 @@
       <c r="W36" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="X36" s="27" t="s">
+      <c r="X36" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB36" s="8" t="s">
@@ -4985,7 +4978,7 @@
       <c r="E37" s="7">
         <v>155</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="9" t="s">
         <v>168</v>
       </c>
       <c r="L37" s="7" t="s">
@@ -5006,7 +4999,7 @@
       <c r="W37" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="X37" s="27" t="s">
+      <c r="X37" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB37" s="8" t="s">
@@ -5029,10 +5022,10 @@
       <c r="E38" s="7">
         <v>181</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="9" t="s">
@@ -5050,7 +5043,7 @@
       <c r="W38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X38" s="27" t="s">
+      <c r="X38" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB38" s="8" t="s">
@@ -5071,7 +5064,7 @@
       <c r="E39" s="7">
         <v>160</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="9" t="s">
         <v>170</v>
       </c>
       <c r="L39" s="7" t="s">
@@ -5092,7 +5085,7 @@
       <c r="W39" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="X39" s="27" t="s">
+      <c r="X39" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB39" s="8" t="s">
@@ -5115,7 +5108,7 @@
       <c r="E40" s="7">
         <v>173</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="9" t="s">
         <v>172</v>
       </c>
       <c r="L40" s="7" t="s">
@@ -5136,7 +5129,7 @@
       <c r="W40" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="X40" s="27" t="s">
+      <c r="X40" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB40" s="8" t="s">
@@ -5180,7 +5173,7 @@
       <c r="W41" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X41" s="27" t="s">
+      <c r="X41" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB41" s="8" t="s">
@@ -5224,7 +5217,7 @@
       <c r="W42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X42" s="27" t="s">
+      <c r="X42" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB42" s="8" t="s">
@@ -5268,7 +5261,7 @@
       <c r="W43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X43" s="27" t="s">
+      <c r="X43" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB43" s="8" t="s">
@@ -5312,7 +5305,7 @@
       <c r="W44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X44" s="27" t="s">
+      <c r="X44" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB44" s="8" t="s">
@@ -5356,7 +5349,7 @@
       <c r="W45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X45" s="27" t="s">
+      <c r="X45" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB45" s="8" t="s">
@@ -5400,7 +5393,7 @@
       <c r="W46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X46" s="27" t="s">
+      <c r="X46" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB46" s="8" t="s">
@@ -5444,7 +5437,7 @@
       <c r="W47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X47" s="27" t="s">
+      <c r="X47" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB47" s="8" t="s">
@@ -5488,7 +5481,7 @@
       <c r="W48" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X48" s="27" t="s">
+      <c r="X48" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB48" s="8" t="s">
@@ -5532,7 +5525,7 @@
       <c r="W49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X49" s="27" t="s">
+      <c r="X49" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB49" s="8" t="s">
@@ -5576,7 +5569,7 @@
       <c r="W50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X50" s="27" t="s">
+      <c r="X50" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB50" s="8" t="s">
@@ -5620,7 +5613,7 @@
       <c r="W51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X51" s="27" t="s">
+      <c r="X51" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB51" s="8" t="s">
@@ -5664,7 +5657,7 @@
       <c r="W52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X52" s="27" t="s">
+      <c r="X52" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB52" s="8" t="s">
@@ -5708,7 +5701,7 @@
       <c r="W53" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X53" s="27" t="s">
+      <c r="X53" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB53" s="8" t="s">
@@ -5752,7 +5745,7 @@
       <c r="W54" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X54" s="27" t="s">
+      <c r="X54" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB54" s="8" t="s">
@@ -5796,7 +5789,7 @@
       <c r="W55" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X55" s="27" t="s">
+      <c r="X55" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB55" s="8" t="s">
@@ -5840,7 +5833,7 @@
       <c r="W56" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X56" s="27" t="s">
+      <c r="X56" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB56" s="8" t="s">
@@ -5884,7 +5877,7 @@
       <c r="W57" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X57" s="27" t="s">
+      <c r="X57" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB57" s="8" t="s">
@@ -5928,7 +5921,7 @@
       <c r="W58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X58" s="27" t="s">
+      <c r="X58" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB58" s="8" t="s">
@@ -5972,7 +5965,7 @@
       <c r="W59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X59" s="27" t="s">
+      <c r="X59" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB59" s="8" t="s">
@@ -6016,7 +6009,7 @@
       <c r="W60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X60" s="27" t="s">
+      <c r="X60" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB60" s="8" t="s">
@@ -6048,20 +6041,20 @@
       <c r="M61" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N61" s="28" t="s">
+      <c r="N61" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O61" s="28" t="s">
+      <c r="O61" s="21" t="s">
         <v>942</v>
       </c>
       <c r="V61" s="9"/>
-      <c r="X61" s="27" t="s">
+      <c r="X61" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB61" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC61" s="27" t="s">
+      <c r="AC61" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -6099,7 +6092,7 @@
       <c r="W62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X62" s="27" t="s">
+      <c r="X62" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB62" s="8" t="s">
@@ -6141,7 +6134,7 @@
       <c r="W63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X63" s="27" t="s">
+      <c r="X63" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB63" s="8" t="s">
@@ -6183,7 +6176,7 @@
       <c r="W64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X64" s="27" t="s">
+      <c r="X64" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB64" s="8" t="s">
@@ -6224,7 +6217,7 @@
       <c r="W65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X65" s="27" t="s">
+      <c r="X65" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB65" s="8" t="s">
@@ -6265,7 +6258,7 @@
       <c r="W66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X66" s="27" t="s">
+      <c r="X66" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB66" s="8" t="s">
@@ -6306,7 +6299,7 @@
       <c r="W67" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X67" s="27" t="s">
+      <c r="X67" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB67" s="8" t="s">
@@ -6347,7 +6340,7 @@
       <c r="W68" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X68" s="27" t="s">
+      <c r="X68" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB68" s="8" t="s">
@@ -6388,7 +6381,7 @@
       <c r="W69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X69" s="27" t="s">
+      <c r="X69" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB69" s="8" t="s">
@@ -6429,7 +6422,7 @@
       <c r="W70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X70" s="27" t="s">
+      <c r="X70" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB70" s="8" t="s">
@@ -6470,7 +6463,7 @@
       <c r="W71" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X71" s="27" t="s">
+      <c r="X71" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB71" s="8" t="s">
@@ -6511,7 +6504,7 @@
       <c r="W72" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X72" s="27" t="s">
+      <c r="X72" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB72" s="8" t="s">
@@ -6552,7 +6545,7 @@
       <c r="W73" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X73" s="27" t="s">
+      <c r="X73" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB73" s="8" t="s">
@@ -6596,7 +6589,7 @@
       <c r="W74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X74" s="27" t="s">
+      <c r="X74" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB74" s="8" t="s">
@@ -6637,7 +6630,7 @@
       <c r="W75" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X75" s="27" t="s">
+      <c r="X75" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB75" s="8" t="s">
@@ -6678,7 +6671,7 @@
       <c r="W76" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X76" s="27" t="s">
+      <c r="X76" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB76" s="8" t="s">
@@ -6719,7 +6712,7 @@
       <c r="W77" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X77" s="27" t="s">
+      <c r="X77" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB77" s="8" t="s">
@@ -6760,7 +6753,7 @@
       <c r="W78" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X78" s="27" t="s">
+      <c r="X78" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB78" s="8" t="s">
@@ -6801,7 +6794,7 @@
       <c r="W79" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X79" s="27" t="s">
+      <c r="X79" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB79" s="8" t="s">
@@ -6842,7 +6835,7 @@
       <c r="W80" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X80" s="27" t="s">
+      <c r="X80" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB80" s="8" t="s">
@@ -6883,7 +6876,7 @@
       <c r="W81" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X81" s="27" t="s">
+      <c r="X81" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB81" s="8" t="s">
@@ -6924,7 +6917,7 @@
       <c r="W82" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X82" s="27" t="s">
+      <c r="X82" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB82" s="8" t="s">
@@ -6965,7 +6958,7 @@
       <c r="W83" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X83" s="27" t="s">
+      <c r="X83" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB83" s="8" t="s">
@@ -7006,7 +6999,7 @@
       <c r="W84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X84" s="27" t="s">
+      <c r="X84" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB84" s="8" t="s">
@@ -7047,7 +7040,7 @@
       <c r="W85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X85" s="27" t="s">
+      <c r="X85" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB85" s="8" t="s">
@@ -7088,7 +7081,7 @@
       <c r="W86" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X86" s="27" t="s">
+      <c r="X86" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB86" s="8" t="s">
@@ -7132,7 +7125,7 @@
       <c r="W87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X87" s="27" t="s">
+      <c r="X87" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB87" s="8" t="s">
@@ -7173,7 +7166,7 @@
       <c r="W88" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X88" s="27" t="s">
+      <c r="X88" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB88" s="8" t="s">
@@ -7214,7 +7207,7 @@
       <c r="W89" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X89" s="27" t="s">
+      <c r="X89" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB89" s="8" t="s">
@@ -7255,7 +7248,7 @@
       <c r="W90" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X90" s="27" t="s">
+      <c r="X90" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB90" s="8" t="s">
@@ -7296,7 +7289,7 @@
       <c r="W91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X91" s="27" t="s">
+      <c r="X91" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB91" s="8" t="s">
@@ -7337,7 +7330,7 @@
       <c r="W92" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X92" s="27" t="s">
+      <c r="X92" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB92" s="8" t="s">
@@ -7378,7 +7371,7 @@
       <c r="W93" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X93" s="27" t="s">
+      <c r="X93" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB93" s="8" t="s">
@@ -7422,7 +7415,7 @@
       <c r="W94" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X94" s="27" t="s">
+      <c r="X94" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB94" s="8" t="s">
@@ -7463,7 +7456,7 @@
       <c r="W95" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X95" s="27" t="s">
+      <c r="X95" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB95" s="8" t="s">
@@ -7504,7 +7497,7 @@
       <c r="W96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X96" s="27" t="s">
+      <c r="X96" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB96" s="8" t="s">
@@ -7545,7 +7538,7 @@
       <c r="W97" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X97" s="27" t="s">
+      <c r="X97" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB97" s="8" t="s">
@@ -7586,7 +7579,7 @@
       <c r="W98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X98" s="27" t="s">
+      <c r="X98" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB98" s="8" t="s">
@@ -7606,7 +7599,7 @@
       <c r="E99" s="7">
         <v>461</v>
       </c>
-      <c r="K99" s="23" t="s">
+      <c r="K99" s="13" t="s">
         <v>431</v>
       </c>
       <c r="L99" s="9" t="s">
@@ -7627,7 +7620,7 @@
       <c r="W99" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X99" s="27" t="s">
+      <c r="X99" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB99" s="8" t="s">
@@ -7668,7 +7661,7 @@
       <c r="W100" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X100" s="27" t="s">
+      <c r="X100" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB100" s="8" t="s">
@@ -7694,7 +7687,7 @@
       <c r="K101" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="L101" s="23" t="s">
+      <c r="L101" s="13" t="s">
         <v>127</v>
       </c>
       <c r="M101" s="13" t="s">
@@ -7712,7 +7705,7 @@
       <c r="W101" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X101" s="27" t="s">
+      <c r="X101" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB101" s="8" t="s">
@@ -7756,7 +7749,7 @@
       <c r="W102" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X102" s="27" t="s">
+      <c r="X102" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB102" s="8" t="s">
@@ -7779,7 +7772,7 @@
       <c r="K103" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="13" t="s">
         <v>127</v>
       </c>
       <c r="M103" s="13" t="s">
@@ -7797,7 +7790,7 @@
       <c r="W103" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X103" s="27" t="s">
+      <c r="X103" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB103" s="8" t="s">
@@ -7838,7 +7831,7 @@
       <c r="W104" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X104" s="27" t="s">
+      <c r="X104" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB104" s="8" t="s">
@@ -7858,7 +7851,7 @@
       <c r="E105" s="7">
         <v>499</v>
       </c>
-      <c r="K105" s="23" t="s">
+      <c r="K105" s="13" t="s">
         <v>431</v>
       </c>
       <c r="L105" s="9" t="s">
@@ -7879,7 +7872,7 @@
       <c r="W105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X105" s="27" t="s">
+      <c r="X105" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB105" s="8" t="s">
@@ -7920,7 +7913,7 @@
       <c r="W106" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X106" s="27" t="s">
+      <c r="X106" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB106" s="8" t="s">
@@ -7961,7 +7954,7 @@
       <c r="W107" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X107" s="27" t="s">
+      <c r="X107" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB107" s="8" t="s">
@@ -8002,7 +7995,7 @@
       <c r="W108" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X108" s="27" t="s">
+      <c r="X108" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB108" s="8" t="s">
@@ -8043,7 +8036,7 @@
       <c r="W109" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X109" s="27" t="s">
+      <c r="X109" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB109" s="8" t="s">
@@ -8084,7 +8077,7 @@
       <c r="W110" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X110" s="27" t="s">
+      <c r="X110" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB110" s="8" t="s">
@@ -8128,7 +8121,7 @@
       <c r="W111" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X111" s="27" t="s">
+      <c r="X111" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB111" s="8" t="s">
@@ -8169,7 +8162,7 @@
       <c r="W112" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X112" s="27" t="s">
+      <c r="X112" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB112" s="15" t="s">
@@ -8213,7 +8206,7 @@
       <c r="W113" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X113" s="27" t="s">
+      <c r="X113" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB113" s="15" t="s">
@@ -8257,7 +8250,7 @@
       <c r="W114" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X114" s="27" t="s">
+      <c r="X114" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB114" s="15" t="s">
@@ -8298,7 +8291,7 @@
       <c r="W115" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X115" s="27" t="s">
+      <c r="X115" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB115" s="15" t="s">
@@ -8339,7 +8332,7 @@
       <c r="W116" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X116" s="27" t="s">
+      <c r="X116" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB116" s="15" t="s">
@@ -8380,7 +8373,7 @@
       <c r="W117" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X117" s="27" t="s">
+      <c r="X117" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB117" s="15" t="s">
@@ -8424,7 +8417,7 @@
       <c r="W118" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X118" s="27" t="s">
+      <c r="X118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB118" s="15" t="s">
@@ -8465,7 +8458,7 @@
       <c r="W119" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X119" s="27" t="s">
+      <c r="X119" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB119" s="15" t="s">
@@ -8506,7 +8499,7 @@
       <c r="W120" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X120" s="27" t="s">
+      <c r="X120" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB120" s="15" t="s">
@@ -8547,7 +8540,7 @@
       <c r="W121" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X121" s="27" t="s">
+      <c r="X121" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB121" s="15" t="s">
@@ -8588,7 +8581,7 @@
       <c r="W122" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X122" s="27" t="s">
+      <c r="X122" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB122" s="15" t="s">
@@ -8632,7 +8625,7 @@
       <c r="W123" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X123" s="27" t="s">
+      <c r="X123" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB123" s="15" t="s">
@@ -8673,7 +8666,7 @@
       <c r="W124" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X124" s="27" t="s">
+      <c r="X124" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB124" s="15" t="s">
@@ -8714,7 +8707,7 @@
       <c r="W125" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X125" s="27" t="s">
+      <c r="X125" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB125" s="15" t="s">
@@ -8758,7 +8751,7 @@
       <c r="W126" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X126" s="27" t="s">
+      <c r="X126" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB126" s="15" t="s">
@@ -8799,7 +8792,7 @@
       <c r="W127" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X127" s="27" t="s">
+      <c r="X127" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB127" s="15" t="s">
@@ -8840,7 +8833,7 @@
       <c r="W128" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X128" s="27" t="s">
+      <c r="X128" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB128" s="15" t="s">
@@ -8881,7 +8874,7 @@
       <c r="W129" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X129" s="27" t="s">
+      <c r="X129" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB129" s="15" t="s">
@@ -8901,7 +8894,7 @@
       <c r="E130" s="7">
         <v>83</v>
       </c>
-      <c r="K130" s="24" t="s">
+      <c r="K130" s="14" t="s">
         <v>453</v>
       </c>
       <c r="L130" s="14" t="s">
@@ -8922,7 +8915,7 @@
       <c r="W130" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X130" s="27" t="s">
+      <c r="X130" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB130" s="15" t="s">
@@ -8966,13 +8959,13 @@
       <c r="W131" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X131" s="27" t="s">
+      <c r="X131" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB131" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AC131" s="24"/>
+      <c r="AC131" s="14"/>
     </row>
     <row r="132" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
@@ -9008,7 +9001,7 @@
       <c r="W132" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X132" s="27" t="s">
+      <c r="X132" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB132" s="15" t="s">
@@ -9049,7 +9042,7 @@
       <c r="W133" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X133" s="27" t="s">
+      <c r="X133" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB133" s="15" t="s">
@@ -9090,7 +9083,7 @@
       <c r="W134" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X134" s="27" t="s">
+      <c r="X134" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB134" s="15" t="s">
@@ -9131,7 +9124,7 @@
       <c r="W135" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X135" s="27" t="s">
+      <c r="X135" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB135" s="15" t="s">
@@ -9172,7 +9165,7 @@
       <c r="W136" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X136" s="27" t="s">
+      <c r="X136" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB136" s="15" t="s">
@@ -9213,7 +9206,7 @@
       <c r="W137" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X137" s="27" t="s">
+      <c r="X137" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB137" s="15" t="s">
@@ -9254,7 +9247,7 @@
       <c r="W138" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X138" s="27" t="s">
+      <c r="X138" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB138" s="15" t="s">
@@ -9295,7 +9288,7 @@
       <c r="W139" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X139" s="27" t="s">
+      <c r="X139" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB139" s="15" t="s">
@@ -9339,7 +9332,7 @@
       <c r="W140" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X140" s="27" t="s">
+      <c r="X140" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB140" s="15" t="s">
@@ -9380,7 +9373,7 @@
       <c r="W141" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X141" s="27" t="s">
+      <c r="X141" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB141" s="15" t="s">
@@ -9421,7 +9414,7 @@
       <c r="W142" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X142" s="27" t="s">
+      <c r="X142" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB142" s="15" t="s">
@@ -9462,7 +9455,7 @@
       <c r="W143" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X143" s="27" t="s">
+      <c r="X143" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB143" s="15" t="s">
@@ -9503,7 +9496,7 @@
       <c r="W144" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X144" s="27" t="s">
+      <c r="X144" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB144" s="15" t="s">
@@ -9544,7 +9537,7 @@
       <c r="W145" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X145" s="27" t="s">
+      <c r="X145" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB145" s="15" t="s">
@@ -9585,7 +9578,7 @@
       <c r="W146" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X146" s="27" t="s">
+      <c r="X146" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB146" s="15" t="s">
@@ -9626,7 +9619,7 @@
       <c r="W147" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X147" s="27" t="s">
+      <c r="X147" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB147" s="15" t="s">
@@ -9667,7 +9660,7 @@
       <c r="W148" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X148" s="27" t="s">
+      <c r="X148" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB148" s="15" t="s">
@@ -9708,7 +9701,7 @@
       <c r="W149" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X149" s="27" t="s">
+      <c r="X149" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB149" s="15" t="s">
@@ -9749,7 +9742,7 @@
       <c r="W150" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X150" s="27" t="s">
+      <c r="X150" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB150" s="15" t="s">
@@ -9793,7 +9786,7 @@
       <c r="W151" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X151" s="27" t="s">
+      <c r="X151" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB151" s="15" t="s">
@@ -9834,7 +9827,7 @@
       <c r="W152" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X152" s="27" t="s">
+      <c r="X152" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB152" s="15" t="s">
@@ -9875,7 +9868,7 @@
       <c r="W153" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X153" s="27" t="s">
+      <c r="X153" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB153" s="15" t="s">
@@ -9925,7 +9918,7 @@
       <c r="W154" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X154" s="27" t="s">
+      <c r="X154" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB154" s="15" t="s">
@@ -9966,7 +9959,7 @@
       <c r="W155" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X155" s="27" t="s">
+      <c r="X155" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB155" s="15" t="s">
@@ -10007,7 +10000,7 @@
       <c r="W156" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X156" s="27" t="s">
+      <c r="X156" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB156" s="15" t="s">
@@ -10048,7 +10041,7 @@
       <c r="W157" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X157" s="27" t="s">
+      <c r="X157" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB157" s="15" t="s">
@@ -10089,7 +10082,7 @@
       <c r="W158" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X158" s="27" t="s">
+      <c r="X158" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB158" s="15" t="s">
@@ -10130,7 +10123,7 @@
       <c r="W159" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X159" s="27" t="s">
+      <c r="X159" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB159" s="15" t="s">
@@ -10171,7 +10164,7 @@
       <c r="W160" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X160" s="27" t="s">
+      <c r="X160" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB160" s="15" t="s">
@@ -10212,7 +10205,7 @@
       <c r="W161" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X161" s="27" t="s">
+      <c r="X161" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB161" s="15" t="s">
@@ -10253,7 +10246,7 @@
       <c r="W162" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X162" s="27" t="s">
+      <c r="X162" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB162" s="15" t="s">
@@ -10294,7 +10287,7 @@
       <c r="W163" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X163" s="27" t="s">
+      <c r="X163" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB163" s="15" t="s">
@@ -10341,7 +10334,7 @@
       <c r="W164" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X164" s="27" t="s">
+      <c r="X164" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB164" s="15" t="s">
@@ -10370,21 +10363,21 @@
       <c r="M165" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N165" s="28" t="s">
+      <c r="N165" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O165" s="28" t="s">
+      <c r="O165" s="21" t="s">
         <v>942</v>
       </c>
       <c r="V165" s="14"/>
       <c r="W165" s="14"/>
-      <c r="X165" s="27" t="s">
+      <c r="X165" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB165" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AC165" s="27" t="s">
+      <c r="AC165" s="20" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10422,7 +10415,7 @@
       <c r="W166" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X166" s="27" t="s">
+      <c r="X166" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB166" s="15" t="s">
@@ -10463,7 +10456,7 @@
       <c r="W167" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X167" s="27" t="s">
+      <c r="X167" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB167" s="15" t="s">
@@ -10504,7 +10497,7 @@
       <c r="W168" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X168" s="27" t="s">
+      <c r="X168" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB168" s="15" t="s">
@@ -10545,7 +10538,7 @@
       <c r="W169" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X169" s="27" t="s">
+      <c r="X169" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB169" s="15" t="s">
@@ -10587,7 +10580,7 @@
       <c r="W170" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X170" s="27" t="s">
+      <c r="X170" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB170" s="15" t="s">
@@ -10629,7 +10622,7 @@
       <c r="W171" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X171" s="27" t="s">
+      <c r="X171" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB171" s="15" t="s">
@@ -10671,7 +10664,7 @@
       <c r="W172" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X172" s="27" t="s">
+      <c r="X172" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB172" s="15" t="s">
@@ -10713,7 +10706,7 @@
       <c r="W173" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X173" s="27" t="s">
+      <c r="X173" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB173" s="15" t="s">
@@ -10760,13 +10753,13 @@
       <c r="W174" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X174" s="27" t="s">
+      <c r="X174" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB174" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AC174" s="26" t="s">
+      <c r="AC174" s="18" t="s">
         <v>869</v>
       </c>
     </row>
@@ -10805,7 +10798,7 @@
       <c r="W175" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X175" s="27" t="s">
+      <c r="X175" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB175" s="15" t="s">
@@ -10847,7 +10840,7 @@
       <c r="W176" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X176" s="27" t="s">
+      <c r="X176" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB176" s="15" t="s">
@@ -10889,7 +10882,7 @@
       <c r="W177" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X177" s="27" t="s">
+      <c r="X177" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB177" s="15" t="s">
@@ -10931,7 +10924,7 @@
       <c r="W178" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X178" s="27" t="s">
+      <c r="X178" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB178" s="15" t="s">
@@ -10973,7 +10966,7 @@
       <c r="W179" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X179" s="27" t="s">
+      <c r="X179" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB179" s="15" t="s">
@@ -11015,7 +11008,7 @@
       <c r="W180" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X180" s="27" t="s">
+      <c r="X180" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB180" s="15" t="s">
@@ -11057,7 +11050,7 @@
       <c r="W181" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X181" s="27" t="s">
+      <c r="X181" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB181" s="15" t="s">
@@ -11098,7 +11091,7 @@
       <c r="W182" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X182" s="27" t="s">
+      <c r="X182" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB182" s="15" t="s">
@@ -11139,7 +11132,7 @@
       <c r="W183" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X183" s="27" t="s">
+      <c r="X183" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB183" s="15" t="s">
@@ -11180,7 +11173,7 @@
       <c r="W184" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X184" s="27" t="s">
+      <c r="X184" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB184" s="15" t="s">
@@ -11221,7 +11214,7 @@
       <c r="W185" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X185" s="27" t="s">
+      <c r="X185" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB185" s="15" t="s">
@@ -11262,7 +11255,7 @@
       <c r="W186" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X186" s="27" t="s">
+      <c r="X186" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB186" s="15" t="s">
@@ -11306,7 +11299,7 @@
       <c r="W187" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X187" s="27" t="s">
+      <c r="X187" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB187" s="15" t="s">
@@ -11347,7 +11340,7 @@
       <c r="W188" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X188" s="27" t="s">
+      <c r="X188" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB188" s="15" t="s">
@@ -11388,7 +11381,7 @@
       <c r="W189" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X189" s="27" t="s">
+      <c r="X189" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB189" s="15" t="s">
@@ -11429,7 +11422,7 @@
       <c r="W190" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X190" s="27" t="s">
+      <c r="X190" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB190" s="15" t="s">
@@ -11470,7 +11463,7 @@
       <c r="W191" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X191" s="27" t="s">
+      <c r="X191" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB191" s="15" t="s">
@@ -11511,7 +11504,7 @@
       <c r="W192" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X192" s="27" t="s">
+      <c r="X192" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB192" s="15" t="s">
@@ -11552,7 +11545,7 @@
       <c r="W193" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X193" s="27" t="s">
+      <c r="X193" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB193" s="15" t="s">
@@ -11593,7 +11586,7 @@
       <c r="W194" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X194" s="27" t="s">
+      <c r="X194" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB194" s="15" t="s">
@@ -11634,7 +11627,7 @@
       <c r="W195" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X195" s="27" t="s">
+      <c r="X195" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB195" s="15" t="s">
@@ -11675,7 +11668,7 @@
       <c r="W196" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X196" s="27" t="s">
+      <c r="X196" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB196" s="15" t="s">
@@ -11716,7 +11709,7 @@
       <c r="W197" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X197" s="27" t="s">
+      <c r="X197" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB197" s="15" t="s">
@@ -11757,7 +11750,7 @@
       <c r="W198" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X198" s="27" t="s">
+      <c r="X198" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB198" s="15" t="s">
@@ -11798,7 +11791,7 @@
       <c r="W199" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X199" s="27" t="s">
+      <c r="X199" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB199" s="15" t="s">
@@ -11842,7 +11835,7 @@
       <c r="W200" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X200" s="27" t="s">
+      <c r="X200" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB200" s="15" t="s">
@@ -11883,7 +11876,7 @@
       <c r="W201" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X201" s="27" t="s">
+      <c r="X201" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB201" s="15" t="s">
@@ -11924,7 +11917,7 @@
       <c r="W202" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X202" s="27" t="s">
+      <c r="X202" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB202" s="15" t="s">
@@ -11953,10 +11946,10 @@
       <c r="M203" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N203" s="25" t="s">
+      <c r="N203" s="19" t="s">
         <v>930</v>
       </c>
-      <c r="O203" s="25" t="s">
+      <c r="O203" s="19" t="s">
         <v>931</v>
       </c>
       <c r="V203" s="18" t="s">
@@ -11965,7 +11958,7 @@
       <c r="W203" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X203" s="27" t="s">
+      <c r="X203" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB203" s="15" t="s">
@@ -12006,7 +11999,7 @@
       <c r="W204" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="X204" s="27" t="s">
+      <c r="X204" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB204" s="15" t="s">
@@ -12035,10 +12028,10 @@
       <c r="M205" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N205" s="25" t="s">
+      <c r="N205" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="O205" s="25" t="s">
+      <c r="O205" s="19" t="s">
         <v>928</v>
       </c>
       <c r="V205" s="18" t="s">
@@ -12047,7 +12040,7 @@
       <c r="W205" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X205" s="27" t="s">
+      <c r="X205" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB205" s="15" t="s">
@@ -12088,7 +12081,7 @@
       <c r="W206" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="X206" s="27" t="s">
+      <c r="X206" s="20" t="s">
         <v>127</v>
       </c>
       <c r="AB206" s="15" t="s">
@@ -12129,7 +12122,7 @@
       <c r="W207" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="X207" s="27" t="s">
+      <c r="X207" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AB207" s="15" t="s">

--- a/Datasets/Winkler/Data/Winkler_FS.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\Akademie_Projekt\Datasets\Winkler\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Winkler/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{47B6F007-4D14-4C03-86C9-86C252A0DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3013,10 +3013,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3318,35 +3314,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
   <dimension ref="A1:AC252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V203" sqref="V203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="7"/>
-    <col min="3" max="3" width="42.09765625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="7" customWidth="1"/>
     <col min="4" max="5" width="11" style="7"/>
     <col min="6" max="7" width="3" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="2.8984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="27" style="7" customWidth="1"/>
     <col min="12" max="13" width="11" style="7"/>
     <col min="14" max="15" width="11" style="12"/>
-    <col min="16" max="16" width="12.19921875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="5" customWidth="1"/>
     <col min="17" max="20" width="3.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.8984375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="78.3984375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="78.375" style="7" customWidth="1"/>
     <col min="23" max="24" width="11" style="7"/>
-    <col min="25" max="26" width="2.69921875" style="7" customWidth="1"/>
+    <col min="25" max="26" width="2.75" style="7" customWidth="1"/>
     <col min="27" max="27" width="3" style="7" customWidth="1"/>
     <col min="28" max="28" width="11" style="8"/>
-    <col min="29" max="29" width="26.3984375" style="7" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="7" customWidth="1"/>
     <col min="30" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
@@ -3473,7 +3469,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
@@ -3643,7 +3639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
@@ -3687,7 +3683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
@@ -3731,7 +3727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
@@ -3775,7 +3771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
@@ -3863,7 +3859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
@@ -3907,7 +3903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
@@ -3995,7 +3991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -4039,7 +4035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
@@ -4083,7 +4079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -4171,7 +4167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
@@ -4215,7 +4211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
@@ -4259,7 +4255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
@@ -4347,7 +4343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -4435,7 +4431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -4561,7 +4557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>28</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -4649,7 +4645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
@@ -4737,7 +4733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>28</v>
       </c>
@@ -4781,7 +4777,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
@@ -4910,7 +4906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +4994,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>28</v>
       </c>
@@ -5040,7 +5036,7 @@
       </c>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>28</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>28</v>
       </c>
@@ -5128,7 +5124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>28</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5344,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>28</v>
       </c>
@@ -5392,7 +5388,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>28</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
@@ -5480,7 +5476,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>28</v>
       </c>
@@ -5524,7 +5520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>28</v>
       </c>
@@ -5568,7 +5564,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>28</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>28</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>28</v>
       </c>
@@ -5700,7 +5696,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>28</v>
       </c>
@@ -5744,7 +5740,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>28</v>
       </c>
@@ -5788,7 +5784,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>28</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>28</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>28</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>28</v>
       </c>
@@ -6008,7 +6004,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>28</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="62" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6085,7 @@
       </c>
       <c r="AC62" s="9"/>
     </row>
-    <row r="63" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6127,7 @@
       </c>
       <c r="AC63" s="9"/>
     </row>
-    <row r="64" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>28</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>28</v>
       </c>
@@ -6295,7 +6291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>28</v>
       </c>
@@ -6336,7 +6332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>28</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>28</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>28</v>
       </c>
@@ -6459,7 +6455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>28</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>28</v>
       </c>
@@ -6544,7 +6540,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>28</v>
       </c>
@@ -6585,7 +6581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>28</v>
       </c>
@@ -6626,7 +6622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>28</v>
       </c>
@@ -6667,7 +6663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>28</v>
       </c>
@@ -6708,7 +6704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>28</v>
       </c>
@@ -6749,7 +6745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>28</v>
       </c>
@@ -6790,7 +6786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>28</v>
       </c>
@@ -6831,7 +6827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>28</v>
       </c>
@@ -6872,7 +6868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>28</v>
       </c>
@@ -6913,7 +6909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>28</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>28</v>
       </c>
@@ -6995,7 +6991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>28</v>
       </c>
@@ -7036,7 +7032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>28</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>28</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>28</v>
       </c>
@@ -7162,7 +7158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>28</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>28</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>28</v>
       </c>
@@ -7285,7 +7281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>28</v>
       </c>
@@ -7326,7 +7322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>28</v>
       </c>
@@ -7370,7 +7366,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>28</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>28</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>28</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>28</v>
       </c>
@@ -7534,7 +7530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>28</v>
       </c>
@@ -7575,7 +7571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>28</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>28</v>
       </c>
@@ -7660,7 +7656,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>28</v>
       </c>
@@ -7745,7 +7741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>28</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>28</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>28</v>
       </c>
@@ -7868,7 +7864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>28</v>
       </c>
@@ -7909,7 +7905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>28</v>
       </c>
@@ -7950,7 +7946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>28</v>
       </c>
@@ -7991,7 +7987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>28</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>28</v>
       </c>
@@ -8076,7 +8072,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>28</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
         <v>438</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="14" t="s">
         <v>438</v>
       </c>
@@ -8205,7 +8201,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
         <v>438</v>
       </c>
@@ -8246,7 +8242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>438</v>
       </c>
@@ -8287,7 +8283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>438</v>
       </c>
@@ -8328,7 +8324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
         <v>438</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
         <v>438</v>
       </c>
@@ -8413,7 +8409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
         <v>438</v>
       </c>
@@ -8454,7 +8450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120" s="14" t="s">
         <v>438</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
         <v>438</v>
       </c>
@@ -8536,7 +8532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122" s="14" t="s">
         <v>438</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123" s="14" t="s">
         <v>438</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B124" s="14" t="s">
         <v>438</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
         <v>438</v>
       </c>
@@ -8706,7 +8702,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
         <v>438</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
         <v>438</v>
       </c>
@@ -8788,7 +8784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
         <v>438</v>
       </c>
@@ -8829,7 +8825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
         <v>438</v>
       </c>
@@ -8870,7 +8866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B130" s="14" t="s">
         <v>438</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
         <v>438</v>
       </c>
@@ -8956,7 +8952,7 @@
       </c>
       <c r="AC131" s="14"/>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
         <v>438</v>
       </c>
@@ -8997,7 +8993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
         <v>438</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B134" s="14" t="s">
         <v>438</v>
       </c>
@@ -9079,7 +9075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
         <v>438</v>
       </c>
@@ -9120,7 +9116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B136" s="14" t="s">
         <v>438</v>
       </c>
@@ -9161,7 +9157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B137" s="14" t="s">
         <v>438</v>
       </c>
@@ -9202,7 +9198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
         <v>438</v>
       </c>
@@ -9243,7 +9239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
         <v>438</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B140" s="14" t="s">
         <v>438</v>
       </c>
@@ -9328,7 +9324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B141" s="14" t="s">
         <v>438</v>
       </c>
@@ -9369,7 +9365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B142" s="14" t="s">
         <v>438</v>
       </c>
@@ -9410,7 +9406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
         <v>438</v>
       </c>
@@ -9451,7 +9447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B144" s="14" t="s">
         <v>438</v>
       </c>
@@ -9492,7 +9488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
         <v>438</v>
       </c>
@@ -9533,7 +9529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B146" s="14" t="s">
         <v>438</v>
       </c>
@@ -9574,7 +9570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
         <v>438</v>
       </c>
@@ -9615,7 +9611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
         <v>438</v>
       </c>
@@ -9656,7 +9652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
         <v>438</v>
       </c>
@@ -9697,7 +9693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>438</v>
       </c>
@@ -9741,7 +9737,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
         <v>438</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
         <v>438</v>
       </c>
@@ -9823,7 +9819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B153" s="14" t="s">
         <v>438</v>
       </c>
@@ -9864,7 +9860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B154" s="14" t="s">
         <v>438</v>
       </c>
@@ -9914,7 +9910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B155" s="14" t="s">
         <v>438</v>
       </c>
@@ -9955,7 +9951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B156" s="14" t="s">
         <v>438</v>
       </c>
@@ -9996,7 +9992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="14" t="s">
         <v>438</v>
       </c>
@@ -10037,7 +10033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B158" s="14" t="s">
         <v>438</v>
       </c>
@@ -10078,7 +10074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
         <v>438</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
         <v>438</v>
       </c>
@@ -10160,7 +10156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B161" s="14" t="s">
         <v>438</v>
       </c>
@@ -10201,7 +10197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
         <v>438</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B163" s="14" t="s">
         <v>438</v>
       </c>
@@ -10283,7 +10279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B164" s="14" t="s">
         <v>438</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
         <v>438</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="166" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
         <v>438</v>
       </c>
@@ -10411,7 +10407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
         <v>438</v>
       </c>
@@ -10452,7 +10448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
         <v>438</v>
       </c>
@@ -10493,7 +10489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B169" s="14" t="s">
         <v>438</v>
       </c>
@@ -10534,7 +10530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B170" s="14" t="s">
         <v>438</v>
       </c>
@@ -10576,7 +10572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B171" s="14" t="s">
         <v>438</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B172" s="14" t="s">
         <v>438</v>
       </c>
@@ -10660,7 +10656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
         <v>438</v>
       </c>
@@ -10702,7 +10698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B174" s="14" t="s">
         <v>438</v>
       </c>
@@ -10752,7 +10748,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="175" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
         <v>438</v>
       </c>
@@ -10794,7 +10790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B176" s="14" t="s">
         <v>438</v>
       </c>
@@ -10836,7 +10832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B177" s="14" t="s">
         <v>438</v>
       </c>
@@ -10878,7 +10874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B178" s="14" t="s">
         <v>438</v>
       </c>
@@ -10920,7 +10916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B179" s="14" t="s">
         <v>438</v>
       </c>
@@ -10962,7 +10958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B180" s="14" t="s">
         <v>438</v>
       </c>
@@ -11004,7 +11000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B181" s="14" t="s">
         <v>438</v>
       </c>
@@ -11046,7 +11042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B182" s="14" t="s">
         <v>438</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B183" s="14" t="s">
         <v>438</v>
       </c>
@@ -11128,7 +11124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B184" s="14" t="s">
         <v>438</v>
       </c>
@@ -11169,7 +11165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B185" s="14" t="s">
         <v>438</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B186" s="14" t="s">
         <v>438</v>
       </c>
@@ -11254,7 +11250,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="187" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B187" s="14" t="s">
         <v>438</v>
       </c>
@@ -11295,7 +11291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B188" s="14" t="s">
         <v>438</v>
       </c>
@@ -11336,7 +11332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B189" s="14" t="s">
         <v>438</v>
       </c>
@@ -11377,7 +11373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B190" s="14" t="s">
         <v>438</v>
       </c>
@@ -11418,7 +11414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
         <v>438</v>
       </c>
@@ -11459,7 +11455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B192" s="14" t="s">
         <v>438</v>
       </c>
@@ -11500,7 +11496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
         <v>438</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B194" s="14" t="s">
         <v>438</v>
       </c>
@@ -11582,7 +11578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B195" s="14" t="s">
         <v>438</v>
       </c>
@@ -11623,7 +11619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B196" s="14" t="s">
         <v>438</v>
       </c>
@@ -11664,7 +11660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B197" s="14" t="s">
         <v>438</v>
       </c>
@@ -11705,7 +11701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B198" s="14" t="s">
         <v>438</v>
       </c>
@@ -11746,7 +11742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B199" s="14" t="s">
         <v>438</v>
       </c>
@@ -11790,7 +11786,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="200" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B200" s="14" t="s">
         <v>438</v>
       </c>
@@ -11831,7 +11827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B201" s="14" t="s">
         <v>438</v>
       </c>
@@ -11872,7 +11868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B202" s="14" t="s">
         <v>438</v>
       </c>
@@ -11913,7 +11909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
         <v>438</v>
       </c>
@@ -11954,7 +11950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B204" s="14" t="s">
         <v>438</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B205" s="14" t="s">
         <v>438</v>
       </c>
@@ -12036,7 +12032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B206" s="14" t="s">
         <v>438</v>
       </c>
@@ -12077,7 +12073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B207" s="14" t="s">
         <v>438</v>
       </c>
@@ -12118,143 +12114,143 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B208" s="14"/>
       <c r="V208" s="14"/>
       <c r="W208" s="14"/>
       <c r="X208" s="14"/>
       <c r="AB208" s="15"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="14"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="14"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="14"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="14"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="14"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="14"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="14"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="14"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="14"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="14"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="14"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="14"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="14"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="14"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="14"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="14"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="14"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="14"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="14"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="14"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="14"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="14"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="14"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="14"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="14"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="14"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="14"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="14"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="14"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="14"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="14"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="14"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="14"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="14"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="14"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="14"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="14"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="14"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="14"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="14"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="14"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="14"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="14"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="14"/>
     </row>
   </sheetData>
@@ -12271,27 +12267,27 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="106.3984375" customWidth="1"/>
+    <col min="2" max="2" width="106.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>941</v>
       </c>
